--- a/access_R.xlsx
+++ b/access_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5dbf6065073cb0a/ETH/Masterarbeit_Bruderhahn/Auswertung/Bruderhahn-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{B2D0335D-22B3-4613-B0F6-5F5FA40A16C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2D0EDF-50F2-4241-AE54-F00567243762}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{B2D0335D-22B3-4613-B0F6-5F5FA40A16C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E53361-18DD-4934-9CCE-946AF19BC239}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7EA2530-95CF-4E74-B7DA-2A36719B56BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="65">
   <si>
     <t>pen</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>23.11.</t>
+  </si>
+  <si>
+    <t>04.12.</t>
   </si>
 </sst>
 </file>
@@ -705,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A347AF84-E4EC-43C8-9E36-B09DC774CD1A}">
-  <dimension ref="A1:V541"/>
+  <dimension ref="A1:V631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A452" sqref="A452:B541"/>
+    <sheetView tabSelected="1" topLeftCell="A602" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V643" sqref="V643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37519,6 +37522,6126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="542" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>64</v>
+      </c>
+      <c r="B542">
+        <v>13</v>
+      </c>
+      <c r="C542" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D542" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E542" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F542" s="13">
+        <v>0</v>
+      </c>
+      <c r="G542" s="13">
+        <v>0</v>
+      </c>
+      <c r="H542" s="13">
+        <v>3</v>
+      </c>
+      <c r="I542" s="13">
+        <v>13</v>
+      </c>
+      <c r="J542" s="13">
+        <v>0</v>
+      </c>
+      <c r="K542" s="13">
+        <v>3</v>
+      </c>
+      <c r="L542" s="13">
+        <v>0</v>
+      </c>
+      <c r="M542" s="13">
+        <v>3</v>
+      </c>
+      <c r="N542" s="13">
+        <v>0</v>
+      </c>
+      <c r="O542" s="13">
+        <v>1</v>
+      </c>
+      <c r="P542" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q542" s="13">
+        <v>3</v>
+      </c>
+      <c r="R542" s="13">
+        <v>0</v>
+      </c>
+      <c r="S542" s="13">
+        <v>0</v>
+      </c>
+      <c r="T542" s="13">
+        <v>20</v>
+      </c>
+      <c r="U542" s="13">
+        <v>0</v>
+      </c>
+      <c r="V542" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>64</v>
+      </c>
+      <c r="B543">
+        <v>13</v>
+      </c>
+      <c r="C543" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D543" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E543" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F543" s="13">
+        <v>0</v>
+      </c>
+      <c r="G543" s="13">
+        <v>0</v>
+      </c>
+      <c r="H543" s="13">
+        <v>2</v>
+      </c>
+      <c r="I543" s="13">
+        <v>1</v>
+      </c>
+      <c r="J543" s="13">
+        <v>0</v>
+      </c>
+      <c r="K543" s="13">
+        <v>0</v>
+      </c>
+      <c r="L543" s="13">
+        <v>0</v>
+      </c>
+      <c r="M543" s="13">
+        <v>0</v>
+      </c>
+      <c r="N543" s="13">
+        <v>0</v>
+      </c>
+      <c r="O543" s="13">
+        <v>0</v>
+      </c>
+      <c r="P543" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q543" s="13">
+        <v>0</v>
+      </c>
+      <c r="R543" s="13">
+        <v>0</v>
+      </c>
+      <c r="S543" s="13">
+        <v>0</v>
+      </c>
+      <c r="T543" s="13">
+        <v>0</v>
+      </c>
+      <c r="U543" s="13">
+        <v>0</v>
+      </c>
+      <c r="V543" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>64</v>
+      </c>
+      <c r="B544">
+        <v>13</v>
+      </c>
+      <c r="C544" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D544" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E544" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F544" s="13">
+        <v>0</v>
+      </c>
+      <c r="G544" s="13">
+        <v>0</v>
+      </c>
+      <c r="H544" s="13">
+        <v>16</v>
+      </c>
+      <c r="I544" s="13">
+        <v>16</v>
+      </c>
+      <c r="J544" s="13">
+        <v>5</v>
+      </c>
+      <c r="K544" s="13">
+        <v>2</v>
+      </c>
+      <c r="L544" s="13">
+        <v>6</v>
+      </c>
+      <c r="M544" s="13">
+        <v>9</v>
+      </c>
+      <c r="N544" s="13">
+        <v>0</v>
+      </c>
+      <c r="O544" s="13">
+        <v>0</v>
+      </c>
+      <c r="P544" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q544" s="13">
+        <v>0</v>
+      </c>
+      <c r="R544" s="13">
+        <v>0</v>
+      </c>
+      <c r="S544" s="13">
+        <v>0</v>
+      </c>
+      <c r="T544" s="13">
+        <v>17</v>
+      </c>
+      <c r="U544" s="13">
+        <v>0</v>
+      </c>
+      <c r="V544" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>64</v>
+      </c>
+      <c r="B545">
+        <v>13</v>
+      </c>
+      <c r="C545" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D545" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E545" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F545" s="13">
+        <v>0</v>
+      </c>
+      <c r="G545" s="13">
+        <v>0</v>
+      </c>
+      <c r="H545" s="13">
+        <v>0</v>
+      </c>
+      <c r="I545" s="13">
+        <v>8</v>
+      </c>
+      <c r="J545" s="13">
+        <v>0</v>
+      </c>
+      <c r="K545" s="13">
+        <v>8</v>
+      </c>
+      <c r="L545" s="13">
+        <v>0</v>
+      </c>
+      <c r="M545" s="13">
+        <v>0</v>
+      </c>
+      <c r="N545" s="13">
+        <v>0</v>
+      </c>
+      <c r="O545" s="13">
+        <v>1</v>
+      </c>
+      <c r="P545" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q545" s="13">
+        <v>1</v>
+      </c>
+      <c r="R545" s="13">
+        <v>0</v>
+      </c>
+      <c r="S545" s="13">
+        <v>0</v>
+      </c>
+      <c r="T545" s="13">
+        <v>11</v>
+      </c>
+      <c r="U545" s="13">
+        <v>0</v>
+      </c>
+      <c r="V545" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>64</v>
+      </c>
+      <c r="B546">
+        <v>13</v>
+      </c>
+      <c r="C546" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D546" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E546" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F546" s="13">
+        <v>0</v>
+      </c>
+      <c r="G546" s="13">
+        <v>0</v>
+      </c>
+      <c r="H546" s="13">
+        <v>2</v>
+      </c>
+      <c r="I546" s="13">
+        <v>1</v>
+      </c>
+      <c r="J546" s="13">
+        <v>0</v>
+      </c>
+      <c r="K546" s="13">
+        <v>0</v>
+      </c>
+      <c r="L546" s="13">
+        <v>0</v>
+      </c>
+      <c r="M546" s="13">
+        <v>0</v>
+      </c>
+      <c r="N546" s="13">
+        <v>0</v>
+      </c>
+      <c r="O546" s="13">
+        <v>0</v>
+      </c>
+      <c r="P546" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q546" s="13">
+        <v>0</v>
+      </c>
+      <c r="R546" s="13">
+        <v>0</v>
+      </c>
+      <c r="S546" s="13">
+        <v>0</v>
+      </c>
+      <c r="T546" s="13">
+        <v>0</v>
+      </c>
+      <c r="U546" s="13">
+        <v>0</v>
+      </c>
+      <c r="V546" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>64</v>
+      </c>
+      <c r="B547">
+        <v>13</v>
+      </c>
+      <c r="C547" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D547" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E547" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F547" s="13">
+        <v>0</v>
+      </c>
+      <c r="G547" s="13">
+        <v>0</v>
+      </c>
+      <c r="H547" s="13">
+        <v>19</v>
+      </c>
+      <c r="I547" s="13">
+        <v>15</v>
+      </c>
+      <c r="J547" s="13">
+        <v>7</v>
+      </c>
+      <c r="K547" s="13">
+        <v>3</v>
+      </c>
+      <c r="L547" s="13">
+        <v>0</v>
+      </c>
+      <c r="M547" s="13">
+        <v>0</v>
+      </c>
+      <c r="N547" s="13">
+        <v>0</v>
+      </c>
+      <c r="O547" s="13">
+        <v>0</v>
+      </c>
+      <c r="P547" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q547" s="13">
+        <v>1</v>
+      </c>
+      <c r="R547" s="13">
+        <v>0</v>
+      </c>
+      <c r="S547" s="13">
+        <v>0</v>
+      </c>
+      <c r="T547" s="13">
+        <v>16</v>
+      </c>
+      <c r="U547" s="13">
+        <v>0</v>
+      </c>
+      <c r="V547" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>64</v>
+      </c>
+      <c r="B548">
+        <v>13</v>
+      </c>
+      <c r="C548" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D548" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E548" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F548" s="13">
+        <v>0</v>
+      </c>
+      <c r="G548" s="13">
+        <v>0</v>
+      </c>
+      <c r="H548" s="13">
+        <v>8</v>
+      </c>
+      <c r="I548" s="13">
+        <v>18</v>
+      </c>
+      <c r="J548" s="13">
+        <v>0</v>
+      </c>
+      <c r="K548" s="13">
+        <v>4</v>
+      </c>
+      <c r="L548" s="13">
+        <v>0</v>
+      </c>
+      <c r="M548" s="13">
+        <v>0</v>
+      </c>
+      <c r="N548" s="13">
+        <v>0</v>
+      </c>
+      <c r="O548" s="13">
+        <v>0</v>
+      </c>
+      <c r="P548" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q548" s="13">
+        <v>2</v>
+      </c>
+      <c r="R548" s="13">
+        <v>0</v>
+      </c>
+      <c r="S548" s="13">
+        <v>3</v>
+      </c>
+      <c r="T548" s="13">
+        <v>12</v>
+      </c>
+      <c r="U548" s="13">
+        <v>0</v>
+      </c>
+      <c r="V548" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>64</v>
+      </c>
+      <c r="B549">
+        <v>13</v>
+      </c>
+      <c r="C549" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D549" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E549" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F549" s="13">
+        <v>0</v>
+      </c>
+      <c r="G549" s="13">
+        <v>0</v>
+      </c>
+      <c r="H549" s="13">
+        <v>8</v>
+      </c>
+      <c r="I549" s="13">
+        <v>6</v>
+      </c>
+      <c r="J549" s="13">
+        <v>0</v>
+      </c>
+      <c r="K549" s="13">
+        <v>0</v>
+      </c>
+      <c r="L549" s="13">
+        <v>0</v>
+      </c>
+      <c r="M549" s="13">
+        <v>0</v>
+      </c>
+      <c r="N549" s="13">
+        <v>0</v>
+      </c>
+      <c r="O549" s="13">
+        <v>0</v>
+      </c>
+      <c r="P549" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q549" s="13">
+        <v>0</v>
+      </c>
+      <c r="R549" s="13">
+        <v>0</v>
+      </c>
+      <c r="S549" s="13">
+        <v>0</v>
+      </c>
+      <c r="T549" s="13">
+        <v>0</v>
+      </c>
+      <c r="U549" s="13">
+        <v>0</v>
+      </c>
+      <c r="V549" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>64</v>
+      </c>
+      <c r="B550">
+        <v>13</v>
+      </c>
+      <c r="C550" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D550" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E550" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F550" s="13">
+        <v>1</v>
+      </c>
+      <c r="G550" s="13">
+        <v>1</v>
+      </c>
+      <c r="H550" s="13">
+        <v>19</v>
+      </c>
+      <c r="I550" s="13">
+        <v>18</v>
+      </c>
+      <c r="J550" s="13">
+        <v>3</v>
+      </c>
+      <c r="K550" s="13">
+        <v>0</v>
+      </c>
+      <c r="L550" s="13">
+        <v>0</v>
+      </c>
+      <c r="M550" s="13">
+        <v>0</v>
+      </c>
+      <c r="N550" s="13">
+        <v>0</v>
+      </c>
+      <c r="O550" s="13">
+        <v>0</v>
+      </c>
+      <c r="P550" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q550" s="13">
+        <v>0</v>
+      </c>
+      <c r="R550" s="13">
+        <v>0</v>
+      </c>
+      <c r="S550" s="13">
+        <v>0</v>
+      </c>
+      <c r="T550" s="13">
+        <v>5</v>
+      </c>
+      <c r="U550" s="13">
+        <v>0</v>
+      </c>
+      <c r="V550" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>64</v>
+      </c>
+      <c r="B551">
+        <v>13</v>
+      </c>
+      <c r="C551" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D551" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E551" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F551" s="13">
+        <v>0</v>
+      </c>
+      <c r="G551" s="13">
+        <v>0</v>
+      </c>
+      <c r="H551" s="13">
+        <v>5</v>
+      </c>
+      <c r="I551" s="13">
+        <v>19</v>
+      </c>
+      <c r="J551" s="13">
+        <v>0</v>
+      </c>
+      <c r="K551" s="13">
+        <v>3</v>
+      </c>
+      <c r="L551" s="13">
+        <v>0</v>
+      </c>
+      <c r="M551" s="13">
+        <v>5</v>
+      </c>
+      <c r="N551" s="13">
+        <v>0</v>
+      </c>
+      <c r="O551" s="13">
+        <v>3</v>
+      </c>
+      <c r="P551" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q551" s="13">
+        <v>2</v>
+      </c>
+      <c r="R551" s="13">
+        <v>0</v>
+      </c>
+      <c r="S551" s="13">
+        <v>1</v>
+      </c>
+      <c r="T551" s="13">
+        <v>26</v>
+      </c>
+      <c r="U551" s="13">
+        <v>0</v>
+      </c>
+      <c r="V551" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>64</v>
+      </c>
+      <c r="B552">
+        <v>13</v>
+      </c>
+      <c r="C552" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D552" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E552" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F552" s="13">
+        <v>0</v>
+      </c>
+      <c r="G552" s="13">
+        <v>0</v>
+      </c>
+      <c r="H552" s="13">
+        <v>2</v>
+      </c>
+      <c r="I552" s="13">
+        <v>1</v>
+      </c>
+      <c r="J552" s="13">
+        <v>0</v>
+      </c>
+      <c r="K552" s="13">
+        <v>0</v>
+      </c>
+      <c r="L552" s="13">
+        <v>0</v>
+      </c>
+      <c r="M552" s="13">
+        <v>0</v>
+      </c>
+      <c r="N552" s="13">
+        <v>0</v>
+      </c>
+      <c r="O552" s="13">
+        <v>0</v>
+      </c>
+      <c r="P552" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q552" s="13">
+        <v>0</v>
+      </c>
+      <c r="R552" s="13">
+        <v>0</v>
+      </c>
+      <c r="S552" s="13">
+        <v>0</v>
+      </c>
+      <c r="T552" s="13">
+        <v>0</v>
+      </c>
+      <c r="U552" s="13">
+        <v>0</v>
+      </c>
+      <c r="V552" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>64</v>
+      </c>
+      <c r="B553">
+        <v>13</v>
+      </c>
+      <c r="C553" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D553" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E553" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F553" s="13">
+        <v>0</v>
+      </c>
+      <c r="G553" s="13">
+        <v>1</v>
+      </c>
+      <c r="H553" s="13">
+        <v>17</v>
+      </c>
+      <c r="I553" s="13">
+        <v>15</v>
+      </c>
+      <c r="J553" s="13">
+        <v>2</v>
+      </c>
+      <c r="K553" s="13">
+        <v>2</v>
+      </c>
+      <c r="L553" s="13">
+        <v>7</v>
+      </c>
+      <c r="M553" s="13">
+        <v>3</v>
+      </c>
+      <c r="N553" s="13">
+        <v>0</v>
+      </c>
+      <c r="O553" s="13">
+        <v>2</v>
+      </c>
+      <c r="P553" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q553" s="13">
+        <v>0</v>
+      </c>
+      <c r="R553" s="13">
+        <v>0</v>
+      </c>
+      <c r="S553" s="13">
+        <v>1</v>
+      </c>
+      <c r="T553" s="13">
+        <v>16</v>
+      </c>
+      <c r="U553" s="13">
+        <v>1</v>
+      </c>
+      <c r="V553" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>64</v>
+      </c>
+      <c r="B554">
+        <v>13</v>
+      </c>
+      <c r="C554" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D554" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E554" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F554" s="13">
+        <v>0</v>
+      </c>
+      <c r="G554" s="13">
+        <v>0</v>
+      </c>
+      <c r="H554" s="13">
+        <v>0</v>
+      </c>
+      <c r="I554" s="13">
+        <v>11</v>
+      </c>
+      <c r="J554" s="13">
+        <v>0</v>
+      </c>
+      <c r="K554" s="13">
+        <v>6</v>
+      </c>
+      <c r="L554" s="13">
+        <v>0</v>
+      </c>
+      <c r="M554" s="13">
+        <v>0</v>
+      </c>
+      <c r="N554" s="13">
+        <v>0</v>
+      </c>
+      <c r="O554" s="13">
+        <v>1</v>
+      </c>
+      <c r="P554" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q554" s="13">
+        <v>0</v>
+      </c>
+      <c r="R554" s="13">
+        <v>0</v>
+      </c>
+      <c r="S554" s="13">
+        <v>4</v>
+      </c>
+      <c r="T554" s="13">
+        <v>10</v>
+      </c>
+      <c r="U554" s="13">
+        <v>0</v>
+      </c>
+      <c r="V554" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>64</v>
+      </c>
+      <c r="B555">
+        <v>13</v>
+      </c>
+      <c r="C555" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D555" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E555" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F555" s="13">
+        <v>0</v>
+      </c>
+      <c r="G555" s="13">
+        <v>0</v>
+      </c>
+      <c r="H555" s="13">
+        <v>1</v>
+      </c>
+      <c r="I555" s="13">
+        <v>1</v>
+      </c>
+      <c r="J555" s="13">
+        <v>0</v>
+      </c>
+      <c r="K555" s="13">
+        <v>0</v>
+      </c>
+      <c r="L555" s="13">
+        <v>0</v>
+      </c>
+      <c r="M555" s="13">
+        <v>0</v>
+      </c>
+      <c r="N555" s="13">
+        <v>0</v>
+      </c>
+      <c r="O555" s="13">
+        <v>0</v>
+      </c>
+      <c r="P555" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q555" s="13">
+        <v>0</v>
+      </c>
+      <c r="R555" s="13">
+        <v>0</v>
+      </c>
+      <c r="S555" s="13">
+        <v>0</v>
+      </c>
+      <c r="T555" s="13">
+        <v>0</v>
+      </c>
+      <c r="U555" s="13">
+        <v>0</v>
+      </c>
+      <c r="V555" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>64</v>
+      </c>
+      <c r="B556">
+        <v>13</v>
+      </c>
+      <c r="C556" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D556" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E556" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F556" s="13">
+        <v>0</v>
+      </c>
+      <c r="G556" s="13">
+        <v>0</v>
+      </c>
+      <c r="H556" s="13">
+        <v>11</v>
+      </c>
+      <c r="I556" s="13">
+        <v>9</v>
+      </c>
+      <c r="J556" s="13">
+        <v>18</v>
+      </c>
+      <c r="K556" s="13">
+        <v>12</v>
+      </c>
+      <c r="L556" s="13">
+        <v>0</v>
+      </c>
+      <c r="M556" s="13">
+        <v>0</v>
+      </c>
+      <c r="N556" s="13">
+        <v>0</v>
+      </c>
+      <c r="O556" s="13">
+        <v>4</v>
+      </c>
+      <c r="P556" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q556" s="13">
+        <v>0</v>
+      </c>
+      <c r="R556" s="13">
+        <v>0</v>
+      </c>
+      <c r="S556" s="13">
+        <v>1</v>
+      </c>
+      <c r="T556" s="13">
+        <v>13</v>
+      </c>
+      <c r="U556" s="13">
+        <v>5</v>
+      </c>
+      <c r="V556" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>64</v>
+      </c>
+      <c r="B557">
+        <v>13</v>
+      </c>
+      <c r="C557" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D557" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E557" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F557" s="13">
+        <v>0</v>
+      </c>
+      <c r="G557" s="13">
+        <v>1</v>
+      </c>
+      <c r="H557" s="13">
+        <v>5</v>
+      </c>
+      <c r="I557" s="13">
+        <v>16</v>
+      </c>
+      <c r="J557" s="13">
+        <v>0</v>
+      </c>
+      <c r="K557" s="13">
+        <v>6</v>
+      </c>
+      <c r="L557" s="13">
+        <v>0</v>
+      </c>
+      <c r="M557" s="13">
+        <v>0</v>
+      </c>
+      <c r="N557" s="13">
+        <v>0</v>
+      </c>
+      <c r="O557" s="13">
+        <v>1</v>
+      </c>
+      <c r="P557" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q557" s="13">
+        <v>2</v>
+      </c>
+      <c r="R557" s="13">
+        <v>0</v>
+      </c>
+      <c r="S557" s="13">
+        <v>1</v>
+      </c>
+      <c r="T557" s="13">
+        <v>12</v>
+      </c>
+      <c r="U557" s="13">
+        <v>1</v>
+      </c>
+      <c r="V557" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>64</v>
+      </c>
+      <c r="B558">
+        <v>13</v>
+      </c>
+      <c r="C558" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D558" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E558" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F558" s="13">
+        <v>0</v>
+      </c>
+      <c r="G558" s="13">
+        <v>0</v>
+      </c>
+      <c r="H558" s="13">
+        <v>3</v>
+      </c>
+      <c r="I558" s="13">
+        <v>2</v>
+      </c>
+      <c r="J558" s="13">
+        <v>0</v>
+      </c>
+      <c r="K558" s="13">
+        <v>0</v>
+      </c>
+      <c r="L558" s="13">
+        <v>0</v>
+      </c>
+      <c r="M558" s="13">
+        <v>0</v>
+      </c>
+      <c r="N558" s="13">
+        <v>0</v>
+      </c>
+      <c r="O558" s="13">
+        <v>0</v>
+      </c>
+      <c r="P558" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q558" s="13">
+        <v>0</v>
+      </c>
+      <c r="R558" s="13">
+        <v>0</v>
+      </c>
+      <c r="S558" s="13">
+        <v>0</v>
+      </c>
+      <c r="T558" s="13">
+        <v>0</v>
+      </c>
+      <c r="U558" s="13">
+        <v>0</v>
+      </c>
+      <c r="V558" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>64</v>
+      </c>
+      <c r="B559">
+        <v>13</v>
+      </c>
+      <c r="C559" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D559" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E559" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F559" s="13">
+        <v>0</v>
+      </c>
+      <c r="G559" s="13">
+        <v>0</v>
+      </c>
+      <c r="H559" s="13">
+        <v>23</v>
+      </c>
+      <c r="I559" s="13">
+        <v>17</v>
+      </c>
+      <c r="J559" s="13">
+        <v>7</v>
+      </c>
+      <c r="K559" s="13">
+        <v>2</v>
+      </c>
+      <c r="L559" s="13">
+        <v>0</v>
+      </c>
+      <c r="M559" s="13">
+        <v>0</v>
+      </c>
+      <c r="N559" s="13">
+        <v>0</v>
+      </c>
+      <c r="O559" s="13">
+        <v>0</v>
+      </c>
+      <c r="P559" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q559" s="13">
+        <v>1</v>
+      </c>
+      <c r="R559" s="13">
+        <v>0</v>
+      </c>
+      <c r="S559" s="13">
+        <v>0</v>
+      </c>
+      <c r="T559" s="13">
+        <v>10</v>
+      </c>
+      <c r="U559" s="13">
+        <v>1</v>
+      </c>
+      <c r="V559" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>64</v>
+      </c>
+      <c r="B560">
+        <v>13</v>
+      </c>
+      <c r="C560" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D560" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E560" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F560" s="13">
+        <v>0</v>
+      </c>
+      <c r="G560" s="13">
+        <v>0</v>
+      </c>
+      <c r="H560" s="13">
+        <v>6</v>
+      </c>
+      <c r="I560" s="13">
+        <v>18</v>
+      </c>
+      <c r="J560" s="13">
+        <v>0</v>
+      </c>
+      <c r="K560" s="13">
+        <v>5</v>
+      </c>
+      <c r="L560" s="13">
+        <v>0</v>
+      </c>
+      <c r="M560" s="13">
+        <v>0</v>
+      </c>
+      <c r="N560" s="13">
+        <v>0</v>
+      </c>
+      <c r="O560" s="13">
+        <v>1</v>
+      </c>
+      <c r="P560" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q560" s="13">
+        <v>0</v>
+      </c>
+      <c r="R560" s="13">
+        <v>0</v>
+      </c>
+      <c r="S560" s="13">
+        <v>0</v>
+      </c>
+      <c r="T560" s="13">
+        <v>8</v>
+      </c>
+      <c r="U560" s="13">
+        <v>0</v>
+      </c>
+      <c r="V560" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>64</v>
+      </c>
+      <c r="B561">
+        <v>13</v>
+      </c>
+      <c r="C561" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D561" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E561" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F561" s="13">
+        <v>0</v>
+      </c>
+      <c r="G561" s="13">
+        <v>0</v>
+      </c>
+      <c r="H561" s="13">
+        <v>0</v>
+      </c>
+      <c r="I561" s="13">
+        <v>0</v>
+      </c>
+      <c r="J561" s="13">
+        <v>0</v>
+      </c>
+      <c r="K561" s="13">
+        <v>0</v>
+      </c>
+      <c r="L561" s="13">
+        <v>0</v>
+      </c>
+      <c r="M561" s="13">
+        <v>0</v>
+      </c>
+      <c r="N561" s="13">
+        <v>0</v>
+      </c>
+      <c r="O561" s="13">
+        <v>0</v>
+      </c>
+      <c r="P561" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q561" s="13">
+        <v>0</v>
+      </c>
+      <c r="R561" s="13">
+        <v>0</v>
+      </c>
+      <c r="S561" s="13">
+        <v>0</v>
+      </c>
+      <c r="T561" s="13">
+        <v>0</v>
+      </c>
+      <c r="U561" s="13">
+        <v>0</v>
+      </c>
+      <c r="V561" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>64</v>
+      </c>
+      <c r="B562">
+        <v>13</v>
+      </c>
+      <c r="C562" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D562" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E562" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F562" s="13">
+        <v>0</v>
+      </c>
+      <c r="G562" s="13">
+        <v>1</v>
+      </c>
+      <c r="H562" s="13">
+        <v>14</v>
+      </c>
+      <c r="I562" s="13">
+        <v>11</v>
+      </c>
+      <c r="J562" s="13">
+        <v>6</v>
+      </c>
+      <c r="K562" s="13">
+        <v>4</v>
+      </c>
+      <c r="L562" s="13">
+        <v>0</v>
+      </c>
+      <c r="M562" s="13">
+        <v>0</v>
+      </c>
+      <c r="N562" s="13">
+        <v>0</v>
+      </c>
+      <c r="O562" s="13">
+        <v>0</v>
+      </c>
+      <c r="P562" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q562" s="13">
+        <v>0</v>
+      </c>
+      <c r="R562" s="13">
+        <v>0</v>
+      </c>
+      <c r="S562" s="13">
+        <v>0</v>
+      </c>
+      <c r="T562" s="13">
+        <v>5</v>
+      </c>
+      <c r="U562" s="13">
+        <v>2</v>
+      </c>
+      <c r="V562" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>64</v>
+      </c>
+      <c r="B563">
+        <v>13</v>
+      </c>
+      <c r="C563" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D563" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E563" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F563" s="13">
+        <v>0</v>
+      </c>
+      <c r="G563" s="13">
+        <v>0</v>
+      </c>
+      <c r="H563" s="13">
+        <v>5</v>
+      </c>
+      <c r="I563" s="13">
+        <v>18</v>
+      </c>
+      <c r="J563" s="13">
+        <v>0</v>
+      </c>
+      <c r="K563" s="13">
+        <v>3</v>
+      </c>
+      <c r="L563" s="13">
+        <v>0</v>
+      </c>
+      <c r="M563" s="13">
+        <v>7</v>
+      </c>
+      <c r="N563" s="13">
+        <v>0</v>
+      </c>
+      <c r="O563" s="13">
+        <v>0</v>
+      </c>
+      <c r="P563" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q563" s="13">
+        <v>2</v>
+      </c>
+      <c r="R563" s="13">
+        <v>0</v>
+      </c>
+      <c r="S563" s="13">
+        <v>0</v>
+      </c>
+      <c r="T563" s="13">
+        <v>18</v>
+      </c>
+      <c r="U563" s="13">
+        <v>1</v>
+      </c>
+      <c r="V563" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>64</v>
+      </c>
+      <c r="B564">
+        <v>13</v>
+      </c>
+      <c r="C564" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D564" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E564" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F564" s="13">
+        <v>0</v>
+      </c>
+      <c r="G564" s="13">
+        <v>1</v>
+      </c>
+      <c r="H564" s="13">
+        <v>7</v>
+      </c>
+      <c r="I564" s="13">
+        <v>3</v>
+      </c>
+      <c r="J564" s="13">
+        <v>0</v>
+      </c>
+      <c r="K564" s="13">
+        <v>0</v>
+      </c>
+      <c r="L564" s="13">
+        <v>1</v>
+      </c>
+      <c r="M564" s="13">
+        <v>0</v>
+      </c>
+      <c r="N564" s="13">
+        <v>0</v>
+      </c>
+      <c r="O564" s="13">
+        <v>0</v>
+      </c>
+      <c r="P564" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q564" s="13">
+        <v>0</v>
+      </c>
+      <c r="R564" s="13">
+        <v>0</v>
+      </c>
+      <c r="S564" s="13">
+        <v>0</v>
+      </c>
+      <c r="T564" s="13">
+        <v>1</v>
+      </c>
+      <c r="U564" s="13">
+        <v>0</v>
+      </c>
+      <c r="V564" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>64</v>
+      </c>
+      <c r="B565">
+        <v>13</v>
+      </c>
+      <c r="C565" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D565" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E565" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F565" s="13">
+        <v>0</v>
+      </c>
+      <c r="G565" s="13">
+        <v>0</v>
+      </c>
+      <c r="H565" s="13">
+        <v>18</v>
+      </c>
+      <c r="I565" s="13">
+        <v>14</v>
+      </c>
+      <c r="J565" s="13">
+        <v>2</v>
+      </c>
+      <c r="K565" s="13">
+        <v>3</v>
+      </c>
+      <c r="L565" s="13">
+        <v>6</v>
+      </c>
+      <c r="M565" s="13">
+        <v>4</v>
+      </c>
+      <c r="N565" s="13">
+        <v>0</v>
+      </c>
+      <c r="O565" s="13">
+        <v>0</v>
+      </c>
+      <c r="P565" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q565" s="13">
+        <v>0</v>
+      </c>
+      <c r="R565" s="13">
+        <v>0</v>
+      </c>
+      <c r="S565" s="13">
+        <v>0</v>
+      </c>
+      <c r="T565" s="13">
+        <v>5</v>
+      </c>
+      <c r="U565" s="13">
+        <v>0</v>
+      </c>
+      <c r="V565" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>64</v>
+      </c>
+      <c r="B566">
+        <v>13</v>
+      </c>
+      <c r="C566" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D566" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E566" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F566" s="13">
+        <v>0</v>
+      </c>
+      <c r="G566" s="13">
+        <v>0</v>
+      </c>
+      <c r="H566" s="13">
+        <v>0</v>
+      </c>
+      <c r="I566" s="13">
+        <v>0</v>
+      </c>
+      <c r="J566" s="13">
+        <v>0</v>
+      </c>
+      <c r="K566" s="13">
+        <v>1</v>
+      </c>
+      <c r="L566" s="13">
+        <v>0</v>
+      </c>
+      <c r="M566" s="13">
+        <v>0</v>
+      </c>
+      <c r="N566" s="13">
+        <v>0</v>
+      </c>
+      <c r="O566" s="13">
+        <v>0</v>
+      </c>
+      <c r="P566" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q566" s="13">
+        <v>0</v>
+      </c>
+      <c r="R566" s="13">
+        <v>0</v>
+      </c>
+      <c r="S566" s="13">
+        <v>0</v>
+      </c>
+      <c r="T566" s="13">
+        <v>3</v>
+      </c>
+      <c r="U566" s="13">
+        <v>0</v>
+      </c>
+      <c r="V566" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>64</v>
+      </c>
+      <c r="B567">
+        <v>13</v>
+      </c>
+      <c r="C567" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D567" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E567" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F567" s="13">
+        <v>0</v>
+      </c>
+      <c r="G567" s="13">
+        <v>0</v>
+      </c>
+      <c r="H567" s="13">
+        <v>0</v>
+      </c>
+      <c r="I567" s="13">
+        <v>0</v>
+      </c>
+      <c r="J567" s="13">
+        <v>0</v>
+      </c>
+      <c r="K567" s="13">
+        <v>0</v>
+      </c>
+      <c r="L567" s="13">
+        <v>0</v>
+      </c>
+      <c r="M567" s="13">
+        <v>0</v>
+      </c>
+      <c r="N567" s="13">
+        <v>0</v>
+      </c>
+      <c r="O567" s="13">
+        <v>0</v>
+      </c>
+      <c r="P567" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q567" s="13">
+        <v>0</v>
+      </c>
+      <c r="R567" s="13">
+        <v>0</v>
+      </c>
+      <c r="S567" s="13">
+        <v>0</v>
+      </c>
+      <c r="T567" s="13">
+        <v>0</v>
+      </c>
+      <c r="U567" s="13">
+        <v>0</v>
+      </c>
+      <c r="V567" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>64</v>
+      </c>
+      <c r="B568">
+        <v>13</v>
+      </c>
+      <c r="C568" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D568" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E568" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F568" s="13">
+        <v>0</v>
+      </c>
+      <c r="G568" s="13">
+        <v>2</v>
+      </c>
+      <c r="H568" s="13">
+        <v>11</v>
+      </c>
+      <c r="I568" s="13">
+        <v>9</v>
+      </c>
+      <c r="J568" s="13">
+        <v>4</v>
+      </c>
+      <c r="K568" s="13">
+        <v>3</v>
+      </c>
+      <c r="L568" s="13">
+        <v>0</v>
+      </c>
+      <c r="M568" s="13">
+        <v>0</v>
+      </c>
+      <c r="N568" s="13">
+        <v>0</v>
+      </c>
+      <c r="O568" s="13">
+        <v>0</v>
+      </c>
+      <c r="P568" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q568" s="13">
+        <v>0</v>
+      </c>
+      <c r="R568" s="13">
+        <v>0</v>
+      </c>
+      <c r="S568" s="13">
+        <v>0</v>
+      </c>
+      <c r="T568" s="13">
+        <v>18</v>
+      </c>
+      <c r="U568" s="13">
+        <v>0</v>
+      </c>
+      <c r="V568" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>64</v>
+      </c>
+      <c r="B569">
+        <v>13</v>
+      </c>
+      <c r="C569" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D569" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E569" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F569" s="13">
+        <v>0</v>
+      </c>
+      <c r="G569" s="13">
+        <v>0</v>
+      </c>
+      <c r="H569" s="13">
+        <v>2</v>
+      </c>
+      <c r="I569" s="13">
+        <v>6</v>
+      </c>
+      <c r="J569" s="13">
+        <v>0</v>
+      </c>
+      <c r="K569" s="13">
+        <v>1</v>
+      </c>
+      <c r="L569" s="13">
+        <v>1</v>
+      </c>
+      <c r="M569" s="13">
+        <v>3</v>
+      </c>
+      <c r="N569" s="13">
+        <v>0</v>
+      </c>
+      <c r="O569" s="13">
+        <v>1</v>
+      </c>
+      <c r="P569" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q569" s="13">
+        <v>1</v>
+      </c>
+      <c r="R569" s="13">
+        <v>0</v>
+      </c>
+      <c r="S569" s="13">
+        <v>0</v>
+      </c>
+      <c r="T569" s="13">
+        <v>12</v>
+      </c>
+      <c r="U569" s="13">
+        <v>0</v>
+      </c>
+      <c r="V569" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>64</v>
+      </c>
+      <c r="B570">
+        <v>13</v>
+      </c>
+      <c r="C570" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D570" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E570" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F570" s="13">
+        <v>0</v>
+      </c>
+      <c r="G570" s="13">
+        <v>0</v>
+      </c>
+      <c r="H570" s="13">
+        <v>3</v>
+      </c>
+      <c r="I570" s="13">
+        <v>7</v>
+      </c>
+      <c r="J570" s="13">
+        <v>0</v>
+      </c>
+      <c r="K570" s="13">
+        <v>0</v>
+      </c>
+      <c r="L570" s="13">
+        <v>1</v>
+      </c>
+      <c r="M570" s="13">
+        <v>0</v>
+      </c>
+      <c r="N570" s="13">
+        <v>0</v>
+      </c>
+      <c r="O570" s="13">
+        <v>0</v>
+      </c>
+      <c r="P570" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q570" s="13">
+        <v>0</v>
+      </c>
+      <c r="R570" s="13">
+        <v>0</v>
+      </c>
+      <c r="S570" s="13">
+        <v>0</v>
+      </c>
+      <c r="T570" s="13">
+        <v>0</v>
+      </c>
+      <c r="U570" s="13">
+        <v>0</v>
+      </c>
+      <c r="V570" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>64</v>
+      </c>
+      <c r="B571">
+        <v>13</v>
+      </c>
+      <c r="C571" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D571" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E571" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F571" s="13">
+        <v>0</v>
+      </c>
+      <c r="G571" s="13">
+        <v>1</v>
+      </c>
+      <c r="H571" s="13">
+        <v>24</v>
+      </c>
+      <c r="I571" s="13">
+        <v>22</v>
+      </c>
+      <c r="J571" s="13">
+        <v>4</v>
+      </c>
+      <c r="K571" s="13">
+        <v>4</v>
+      </c>
+      <c r="L571" s="13">
+        <v>9</v>
+      </c>
+      <c r="M571" s="13">
+        <v>7</v>
+      </c>
+      <c r="N571" s="13">
+        <v>0</v>
+      </c>
+      <c r="O571" s="13">
+        <v>0</v>
+      </c>
+      <c r="P571" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q571" s="13">
+        <v>0</v>
+      </c>
+      <c r="R571" s="13">
+        <v>0</v>
+      </c>
+      <c r="S571" s="13">
+        <v>0</v>
+      </c>
+      <c r="T571" s="13">
+        <v>18</v>
+      </c>
+      <c r="U571" s="13">
+        <v>0</v>
+      </c>
+      <c r="V571" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>64</v>
+      </c>
+      <c r="B572">
+        <v>13</v>
+      </c>
+      <c r="C572" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D572" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E572" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F572" s="13">
+        <v>0</v>
+      </c>
+      <c r="G572" s="13">
+        <v>0</v>
+      </c>
+      <c r="H572" s="13">
+        <v>2</v>
+      </c>
+      <c r="I572" s="13">
+        <v>16</v>
+      </c>
+      <c r="J572" s="13">
+        <v>0</v>
+      </c>
+      <c r="K572" s="13">
+        <v>9</v>
+      </c>
+      <c r="L572" s="13">
+        <v>0</v>
+      </c>
+      <c r="M572" s="13">
+        <v>0</v>
+      </c>
+      <c r="N572" s="13">
+        <v>0</v>
+      </c>
+      <c r="O572" s="13">
+        <v>0</v>
+      </c>
+      <c r="P572" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q572" s="13">
+        <v>2</v>
+      </c>
+      <c r="R572" s="13">
+        <v>0</v>
+      </c>
+      <c r="S572" s="13">
+        <v>0</v>
+      </c>
+      <c r="T572" s="13">
+        <v>9</v>
+      </c>
+      <c r="U572" s="13">
+        <v>0</v>
+      </c>
+      <c r="V572" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>64</v>
+      </c>
+      <c r="B573">
+        <v>13</v>
+      </c>
+      <c r="C573" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D573" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E573" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F573" s="13">
+        <v>0</v>
+      </c>
+      <c r="G573" s="13">
+        <v>0</v>
+      </c>
+      <c r="H573" s="13">
+        <v>2</v>
+      </c>
+      <c r="I573" s="13">
+        <v>6</v>
+      </c>
+      <c r="J573" s="13">
+        <v>0</v>
+      </c>
+      <c r="K573" s="13">
+        <v>0</v>
+      </c>
+      <c r="L573" s="13">
+        <v>0</v>
+      </c>
+      <c r="M573" s="13">
+        <v>0</v>
+      </c>
+      <c r="N573" s="13">
+        <v>0</v>
+      </c>
+      <c r="O573" s="13">
+        <v>0</v>
+      </c>
+      <c r="P573" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q573" s="13">
+        <v>0</v>
+      </c>
+      <c r="R573" s="13">
+        <v>0</v>
+      </c>
+      <c r="S573" s="13">
+        <v>0</v>
+      </c>
+      <c r="T573" s="13">
+        <v>0</v>
+      </c>
+      <c r="U573" s="13">
+        <v>0</v>
+      </c>
+      <c r="V573" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>64</v>
+      </c>
+      <c r="B574">
+        <v>13</v>
+      </c>
+      <c r="C574" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D574" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E574" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F574" s="13">
+        <v>0</v>
+      </c>
+      <c r="G574" s="13">
+        <v>0</v>
+      </c>
+      <c r="H574" s="13">
+        <v>10</v>
+      </c>
+      <c r="I574" s="13">
+        <v>8</v>
+      </c>
+      <c r="J574" s="13">
+        <v>4</v>
+      </c>
+      <c r="K574" s="13">
+        <v>2</v>
+      </c>
+      <c r="L574" s="13">
+        <v>0</v>
+      </c>
+      <c r="M574" s="13">
+        <v>0</v>
+      </c>
+      <c r="N574" s="13">
+        <v>0</v>
+      </c>
+      <c r="O574" s="13">
+        <v>0</v>
+      </c>
+      <c r="P574" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q574" s="13">
+        <v>1</v>
+      </c>
+      <c r="R574" s="13">
+        <v>0</v>
+      </c>
+      <c r="S574" s="13">
+        <v>0</v>
+      </c>
+      <c r="T574" s="13">
+        <v>7</v>
+      </c>
+      <c r="U574" s="13">
+        <v>1</v>
+      </c>
+      <c r="V574" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>64</v>
+      </c>
+      <c r="B575">
+        <v>13</v>
+      </c>
+      <c r="C575" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D575" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E575" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F575" s="13">
+        <v>0</v>
+      </c>
+      <c r="G575" s="13">
+        <v>0</v>
+      </c>
+      <c r="H575" s="13">
+        <v>2</v>
+      </c>
+      <c r="I575" s="13">
+        <v>13</v>
+      </c>
+      <c r="J575" s="13">
+        <v>0</v>
+      </c>
+      <c r="K575" s="13">
+        <v>8</v>
+      </c>
+      <c r="L575" s="13">
+        <v>0</v>
+      </c>
+      <c r="M575" s="13">
+        <v>0</v>
+      </c>
+      <c r="N575" s="13">
+        <v>0</v>
+      </c>
+      <c r="O575" s="13">
+        <v>2</v>
+      </c>
+      <c r="P575" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q575" s="13">
+        <v>1</v>
+      </c>
+      <c r="R575" s="13">
+        <v>0</v>
+      </c>
+      <c r="S575" s="13">
+        <v>0</v>
+      </c>
+      <c r="T575" s="13">
+        <v>13</v>
+      </c>
+      <c r="U575" s="13">
+        <v>0</v>
+      </c>
+      <c r="V575" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>64</v>
+      </c>
+      <c r="B576">
+        <v>13</v>
+      </c>
+      <c r="C576" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D576" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E576" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F576" s="13">
+        <v>0</v>
+      </c>
+      <c r="G576" s="13">
+        <v>0</v>
+      </c>
+      <c r="H576" s="13">
+        <v>2</v>
+      </c>
+      <c r="I576" s="13">
+        <v>1</v>
+      </c>
+      <c r="J576" s="13">
+        <v>0</v>
+      </c>
+      <c r="K576" s="13">
+        <v>0</v>
+      </c>
+      <c r="L576" s="13">
+        <v>0</v>
+      </c>
+      <c r="M576" s="13">
+        <v>0</v>
+      </c>
+      <c r="N576" s="13">
+        <v>0</v>
+      </c>
+      <c r="O576" s="13">
+        <v>0</v>
+      </c>
+      <c r="P576" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q576" s="13">
+        <v>0</v>
+      </c>
+      <c r="R576" s="13">
+        <v>0</v>
+      </c>
+      <c r="S576" s="13">
+        <v>0</v>
+      </c>
+      <c r="T576" s="13">
+        <v>0</v>
+      </c>
+      <c r="U576" s="13">
+        <v>0</v>
+      </c>
+      <c r="V576" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>64</v>
+      </c>
+      <c r="B577">
+        <v>13</v>
+      </c>
+      <c r="C577" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D577" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E577" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F577" s="13">
+        <v>0</v>
+      </c>
+      <c r="G577" s="13">
+        <v>0</v>
+      </c>
+      <c r="H577" s="13">
+        <v>18</v>
+      </c>
+      <c r="I577" s="13">
+        <v>16</v>
+      </c>
+      <c r="J577" s="13">
+        <v>8</v>
+      </c>
+      <c r="K577" s="13">
+        <v>6</v>
+      </c>
+      <c r="L577" s="13">
+        <v>0</v>
+      </c>
+      <c r="M577" s="13">
+        <v>0</v>
+      </c>
+      <c r="N577" s="13">
+        <v>0</v>
+      </c>
+      <c r="O577" s="13">
+        <v>0</v>
+      </c>
+      <c r="P577" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q577" s="13">
+        <v>0</v>
+      </c>
+      <c r="R577" s="13">
+        <v>0</v>
+      </c>
+      <c r="S577" s="13">
+        <v>0</v>
+      </c>
+      <c r="T577" s="13">
+        <v>9</v>
+      </c>
+      <c r="U577" s="13">
+        <v>0</v>
+      </c>
+      <c r="V577" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>64</v>
+      </c>
+      <c r="B578">
+        <v>13</v>
+      </c>
+      <c r="C578" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D578" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E578" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F578" s="13">
+        <v>0</v>
+      </c>
+      <c r="G578" s="13">
+        <v>0</v>
+      </c>
+      <c r="H578" s="13">
+        <v>3</v>
+      </c>
+      <c r="I578" s="13">
+        <v>9</v>
+      </c>
+      <c r="J578" s="13">
+        <v>0</v>
+      </c>
+      <c r="K578" s="13">
+        <v>2</v>
+      </c>
+      <c r="L578" s="13">
+        <v>0</v>
+      </c>
+      <c r="M578" s="13">
+        <v>0</v>
+      </c>
+      <c r="N578" s="13">
+        <v>0</v>
+      </c>
+      <c r="O578" s="13">
+        <v>1</v>
+      </c>
+      <c r="P578" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q578" s="13">
+        <v>0</v>
+      </c>
+      <c r="R578" s="13">
+        <v>0</v>
+      </c>
+      <c r="S578" s="13">
+        <v>0</v>
+      </c>
+      <c r="T578" s="13">
+        <v>7</v>
+      </c>
+      <c r="U578" s="13">
+        <v>1</v>
+      </c>
+      <c r="V578" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>64</v>
+      </c>
+      <c r="B579">
+        <v>13</v>
+      </c>
+      <c r="C579" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D579" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E579" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F579" s="13">
+        <v>1</v>
+      </c>
+      <c r="G579" s="13">
+        <v>0</v>
+      </c>
+      <c r="H579" s="13">
+        <v>5</v>
+      </c>
+      <c r="I579" s="13">
+        <v>4</v>
+      </c>
+      <c r="J579" s="13">
+        <v>0</v>
+      </c>
+      <c r="K579" s="13">
+        <v>0</v>
+      </c>
+      <c r="L579" s="13">
+        <v>0</v>
+      </c>
+      <c r="M579" s="13">
+        <v>0</v>
+      </c>
+      <c r="N579" s="13">
+        <v>0</v>
+      </c>
+      <c r="O579" s="13">
+        <v>0</v>
+      </c>
+      <c r="P579" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q579" s="13">
+        <v>0</v>
+      </c>
+      <c r="R579" s="13">
+        <v>0</v>
+      </c>
+      <c r="S579" s="13">
+        <v>0</v>
+      </c>
+      <c r="T579" s="13">
+        <v>0</v>
+      </c>
+      <c r="U579" s="13">
+        <v>0</v>
+      </c>
+      <c r="V579" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>64</v>
+      </c>
+      <c r="B580">
+        <v>13</v>
+      </c>
+      <c r="C580" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D580" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E580" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F580" s="13">
+        <v>2</v>
+      </c>
+      <c r="G580" s="13">
+        <v>2</v>
+      </c>
+      <c r="H580" s="13">
+        <v>23</v>
+      </c>
+      <c r="I580" s="13">
+        <v>17</v>
+      </c>
+      <c r="J580" s="13">
+        <v>8</v>
+      </c>
+      <c r="K580" s="13">
+        <v>6</v>
+      </c>
+      <c r="L580" s="13">
+        <v>0</v>
+      </c>
+      <c r="M580" s="13">
+        <v>0</v>
+      </c>
+      <c r="N580" s="13">
+        <v>0</v>
+      </c>
+      <c r="O580" s="13">
+        <v>0</v>
+      </c>
+      <c r="P580" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q580" s="13">
+        <v>1</v>
+      </c>
+      <c r="R580" s="13">
+        <v>0</v>
+      </c>
+      <c r="S580" s="13">
+        <v>0</v>
+      </c>
+      <c r="T580" s="13">
+        <v>16</v>
+      </c>
+      <c r="U580" s="13">
+        <v>0</v>
+      </c>
+      <c r="V580" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>64</v>
+      </c>
+      <c r="B581">
+        <v>13</v>
+      </c>
+      <c r="C581" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D581" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E581" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F581" s="13">
+        <v>0</v>
+      </c>
+      <c r="G581" s="13">
+        <v>0</v>
+      </c>
+      <c r="H581" s="13">
+        <v>0</v>
+      </c>
+      <c r="I581" s="13">
+        <v>13</v>
+      </c>
+      <c r="J581" s="13">
+        <v>0</v>
+      </c>
+      <c r="K581" s="13">
+        <v>7</v>
+      </c>
+      <c r="L581" s="13">
+        <v>0</v>
+      </c>
+      <c r="M581" s="13">
+        <v>0</v>
+      </c>
+      <c r="N581" s="13">
+        <v>0</v>
+      </c>
+      <c r="O581" s="13">
+        <v>1</v>
+      </c>
+      <c r="P581" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q581" s="13">
+        <v>2</v>
+      </c>
+      <c r="R581" s="13">
+        <v>0</v>
+      </c>
+      <c r="S581" s="13">
+        <v>2</v>
+      </c>
+      <c r="T581" s="13">
+        <v>13</v>
+      </c>
+      <c r="U581" s="13">
+        <v>0</v>
+      </c>
+      <c r="V581" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>64</v>
+      </c>
+      <c r="B582">
+        <v>13</v>
+      </c>
+      <c r="C582" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D582" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E582" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F582" s="13">
+        <v>0</v>
+      </c>
+      <c r="G582" s="13">
+        <v>0</v>
+      </c>
+      <c r="H582" s="13">
+        <v>3</v>
+      </c>
+      <c r="I582" s="13">
+        <v>4</v>
+      </c>
+      <c r="J582" s="13">
+        <v>0</v>
+      </c>
+      <c r="K582" s="13">
+        <v>0</v>
+      </c>
+      <c r="L582" s="13">
+        <v>0</v>
+      </c>
+      <c r="M582" s="13">
+        <v>0</v>
+      </c>
+      <c r="N582" s="13">
+        <v>0</v>
+      </c>
+      <c r="O582" s="13">
+        <v>0</v>
+      </c>
+      <c r="P582" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q582" s="13">
+        <v>0</v>
+      </c>
+      <c r="R582" s="13">
+        <v>0</v>
+      </c>
+      <c r="S582" s="13">
+        <v>0</v>
+      </c>
+      <c r="T582" s="13">
+        <v>0</v>
+      </c>
+      <c r="U582" s="13">
+        <v>0</v>
+      </c>
+      <c r="V582" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>64</v>
+      </c>
+      <c r="B583">
+        <v>13</v>
+      </c>
+      <c r="C583" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D583" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E583" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F583" s="13">
+        <v>1</v>
+      </c>
+      <c r="G583" s="13">
+        <v>1</v>
+      </c>
+      <c r="H583" s="13">
+        <v>16</v>
+      </c>
+      <c r="I583" s="13">
+        <v>10</v>
+      </c>
+      <c r="J583" s="13">
+        <v>4</v>
+      </c>
+      <c r="K583" s="13">
+        <v>0</v>
+      </c>
+      <c r="L583" s="13">
+        <v>0</v>
+      </c>
+      <c r="M583" s="13">
+        <v>0</v>
+      </c>
+      <c r="N583" s="13">
+        <v>0</v>
+      </c>
+      <c r="O583" s="13">
+        <v>1</v>
+      </c>
+      <c r="P583" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q583" s="13">
+        <v>0</v>
+      </c>
+      <c r="R583" s="13">
+        <v>0</v>
+      </c>
+      <c r="S583" s="13">
+        <v>0</v>
+      </c>
+      <c r="T583" s="13">
+        <v>8</v>
+      </c>
+      <c r="U583" s="13">
+        <v>1</v>
+      </c>
+      <c r="V583" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>64</v>
+      </c>
+      <c r="B584">
+        <v>13</v>
+      </c>
+      <c r="C584" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D584" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E584" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F584" s="13">
+        <v>0</v>
+      </c>
+      <c r="G584" s="13">
+        <v>0</v>
+      </c>
+      <c r="H584" s="13">
+        <v>1</v>
+      </c>
+      <c r="I584" s="13">
+        <v>3</v>
+      </c>
+      <c r="J584" s="13">
+        <v>0</v>
+      </c>
+      <c r="K584" s="13">
+        <v>0</v>
+      </c>
+      <c r="L584" s="13">
+        <v>0</v>
+      </c>
+      <c r="M584" s="13">
+        <v>3</v>
+      </c>
+      <c r="N584" s="13">
+        <v>0</v>
+      </c>
+      <c r="O584" s="13">
+        <v>0</v>
+      </c>
+      <c r="P584" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q584" s="13">
+        <v>0</v>
+      </c>
+      <c r="R584" s="13">
+        <v>0</v>
+      </c>
+      <c r="S584" s="13">
+        <v>0</v>
+      </c>
+      <c r="T584" s="13">
+        <v>12</v>
+      </c>
+      <c r="U584" s="13">
+        <v>0</v>
+      </c>
+      <c r="V584" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>64</v>
+      </c>
+      <c r="B585">
+        <v>13</v>
+      </c>
+      <c r="C585" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D585" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E585" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F585" s="13">
+        <v>0</v>
+      </c>
+      <c r="G585" s="13">
+        <v>0</v>
+      </c>
+      <c r="H585" s="13">
+        <v>2</v>
+      </c>
+      <c r="I585" s="13">
+        <v>3</v>
+      </c>
+      <c r="J585" s="13">
+        <v>0</v>
+      </c>
+      <c r="K585" s="13">
+        <v>0</v>
+      </c>
+      <c r="L585" s="13">
+        <v>0</v>
+      </c>
+      <c r="M585" s="13">
+        <v>0</v>
+      </c>
+      <c r="N585" s="13">
+        <v>0</v>
+      </c>
+      <c r="O585" s="13">
+        <v>0</v>
+      </c>
+      <c r="P585" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q585" s="13">
+        <v>0</v>
+      </c>
+      <c r="R585" s="13">
+        <v>0</v>
+      </c>
+      <c r="S585" s="13">
+        <v>0</v>
+      </c>
+      <c r="T585" s="13">
+        <v>0</v>
+      </c>
+      <c r="U585" s="13">
+        <v>0</v>
+      </c>
+      <c r="V585" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>64</v>
+      </c>
+      <c r="B586">
+        <v>13</v>
+      </c>
+      <c r="C586" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D586" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E586" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F586" s="13">
+        <v>0</v>
+      </c>
+      <c r="G586" s="13">
+        <v>0</v>
+      </c>
+      <c r="H586" s="13">
+        <v>19</v>
+      </c>
+      <c r="I586" s="13">
+        <v>17</v>
+      </c>
+      <c r="J586" s="13">
+        <v>2</v>
+      </c>
+      <c r="K586" s="13">
+        <v>0</v>
+      </c>
+      <c r="L586" s="13">
+        <v>7</v>
+      </c>
+      <c r="M586" s="13">
+        <v>6</v>
+      </c>
+      <c r="N586" s="13">
+        <v>0</v>
+      </c>
+      <c r="O586" s="13">
+        <v>0</v>
+      </c>
+      <c r="P586" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q586" s="13">
+        <v>0</v>
+      </c>
+      <c r="R586" s="13">
+        <v>0</v>
+      </c>
+      <c r="S586" s="13">
+        <v>0</v>
+      </c>
+      <c r="T586" s="13">
+        <v>6</v>
+      </c>
+      <c r="U586" s="13">
+        <v>0</v>
+      </c>
+      <c r="V586" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>64</v>
+      </c>
+      <c r="B587">
+        <v>13</v>
+      </c>
+      <c r="C587" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D587" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E587" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F587" s="13">
+        <v>0</v>
+      </c>
+      <c r="G587" s="13">
+        <v>0</v>
+      </c>
+      <c r="H587" s="13">
+        <v>3</v>
+      </c>
+      <c r="I587" s="13">
+        <v>14</v>
+      </c>
+      <c r="J587" s="13">
+        <v>0</v>
+      </c>
+      <c r="K587" s="13">
+        <v>9</v>
+      </c>
+      <c r="L587" s="13">
+        <v>0</v>
+      </c>
+      <c r="M587" s="13">
+        <v>0</v>
+      </c>
+      <c r="N587" s="13">
+        <v>0</v>
+      </c>
+      <c r="O587" s="13">
+        <v>1</v>
+      </c>
+      <c r="P587" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q587" s="13">
+        <v>0</v>
+      </c>
+      <c r="R587" s="13">
+        <v>0</v>
+      </c>
+      <c r="S587" s="13">
+        <v>0</v>
+      </c>
+      <c r="T587" s="13">
+        <v>12</v>
+      </c>
+      <c r="U587" s="13">
+        <v>0</v>
+      </c>
+      <c r="V587" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>64</v>
+      </c>
+      <c r="B588">
+        <v>13</v>
+      </c>
+      <c r="C588" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D588" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E588" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F588" s="13">
+        <v>0</v>
+      </c>
+      <c r="G588" s="13">
+        <v>0</v>
+      </c>
+      <c r="H588" s="13">
+        <v>1</v>
+      </c>
+      <c r="I588" s="13">
+        <v>0</v>
+      </c>
+      <c r="J588" s="13">
+        <v>0</v>
+      </c>
+      <c r="K588" s="13">
+        <v>0</v>
+      </c>
+      <c r="L588" s="13">
+        <v>0</v>
+      </c>
+      <c r="M588" s="13">
+        <v>0</v>
+      </c>
+      <c r="N588" s="13">
+        <v>0</v>
+      </c>
+      <c r="O588" s="13">
+        <v>0</v>
+      </c>
+      <c r="P588" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q588" s="13">
+        <v>0</v>
+      </c>
+      <c r="R588" s="13">
+        <v>0</v>
+      </c>
+      <c r="S588" s="13">
+        <v>0</v>
+      </c>
+      <c r="T588" s="13">
+        <v>0</v>
+      </c>
+      <c r="U588" s="13">
+        <v>0</v>
+      </c>
+      <c r="V588" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>64</v>
+      </c>
+      <c r="B589">
+        <v>13</v>
+      </c>
+      <c r="C589" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D589" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E589" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F589" s="13">
+        <v>0</v>
+      </c>
+      <c r="G589" s="13">
+        <v>0</v>
+      </c>
+      <c r="H589" s="13">
+        <v>19</v>
+      </c>
+      <c r="I589" s="13">
+        <v>15</v>
+      </c>
+      <c r="J589" s="13">
+        <v>5</v>
+      </c>
+      <c r="K589" s="13">
+        <v>3</v>
+      </c>
+      <c r="L589" s="13">
+        <v>0</v>
+      </c>
+      <c r="M589" s="13">
+        <v>0</v>
+      </c>
+      <c r="N589" s="13">
+        <v>0</v>
+      </c>
+      <c r="O589" s="13">
+        <v>0</v>
+      </c>
+      <c r="P589" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q589" s="13">
+        <v>0</v>
+      </c>
+      <c r="R589" s="13">
+        <v>0</v>
+      </c>
+      <c r="S589" s="13">
+        <v>0</v>
+      </c>
+      <c r="T589" s="13">
+        <v>5</v>
+      </c>
+      <c r="U589" s="13">
+        <v>0</v>
+      </c>
+      <c r="V589" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>64</v>
+      </c>
+      <c r="B590">
+        <v>13</v>
+      </c>
+      <c r="C590" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D590" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E590" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F590" s="13">
+        <v>0</v>
+      </c>
+      <c r="G590" s="13">
+        <v>0</v>
+      </c>
+      <c r="H590" s="13">
+        <v>2</v>
+      </c>
+      <c r="I590" s="13">
+        <v>19</v>
+      </c>
+      <c r="J590" s="13">
+        <v>0</v>
+      </c>
+      <c r="K590" s="13">
+        <v>3</v>
+      </c>
+      <c r="L590" s="13">
+        <v>0</v>
+      </c>
+      <c r="M590" s="13">
+        <v>7</v>
+      </c>
+      <c r="N590" s="13">
+        <v>0</v>
+      </c>
+      <c r="O590" s="13">
+        <v>3</v>
+      </c>
+      <c r="P590" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q590" s="13">
+        <v>2</v>
+      </c>
+      <c r="R590" s="13">
+        <v>0</v>
+      </c>
+      <c r="S590" s="13">
+        <v>0</v>
+      </c>
+      <c r="T590" s="13">
+        <v>12</v>
+      </c>
+      <c r="U590" s="13">
+        <v>1</v>
+      </c>
+      <c r="V590" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>64</v>
+      </c>
+      <c r="B591">
+        <v>13</v>
+      </c>
+      <c r="C591" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D591" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E591" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F591" s="13">
+        <v>0</v>
+      </c>
+      <c r="G591" s="13">
+        <v>0</v>
+      </c>
+      <c r="H591" s="13">
+        <v>2</v>
+      </c>
+      <c r="I591" s="13">
+        <v>0</v>
+      </c>
+      <c r="J591" s="13">
+        <v>0</v>
+      </c>
+      <c r="K591" s="13">
+        <v>0</v>
+      </c>
+      <c r="L591" s="13">
+        <v>0</v>
+      </c>
+      <c r="M591" s="13">
+        <v>0</v>
+      </c>
+      <c r="N591" s="13">
+        <v>0</v>
+      </c>
+      <c r="O591" s="13">
+        <v>0</v>
+      </c>
+      <c r="P591" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q591" s="13">
+        <v>0</v>
+      </c>
+      <c r="R591" s="13">
+        <v>0</v>
+      </c>
+      <c r="S591" s="13">
+        <v>0</v>
+      </c>
+      <c r="T591" s="13">
+        <v>0</v>
+      </c>
+      <c r="U591" s="13">
+        <v>0</v>
+      </c>
+      <c r="V591" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>64</v>
+      </c>
+      <c r="B592">
+        <v>13</v>
+      </c>
+      <c r="C592" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D592" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E592" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F592" s="13">
+        <v>0</v>
+      </c>
+      <c r="G592" s="13">
+        <v>0</v>
+      </c>
+      <c r="H592" s="13">
+        <v>16</v>
+      </c>
+      <c r="I592" s="13">
+        <v>9</v>
+      </c>
+      <c r="J592" s="13">
+        <v>3</v>
+      </c>
+      <c r="K592" s="13">
+        <v>2</v>
+      </c>
+      <c r="L592" s="13">
+        <v>6</v>
+      </c>
+      <c r="M592" s="13">
+        <v>1</v>
+      </c>
+      <c r="N592" s="13">
+        <v>0</v>
+      </c>
+      <c r="O592" s="13">
+        <v>0</v>
+      </c>
+      <c r="P592" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q592" s="13">
+        <v>0</v>
+      </c>
+      <c r="R592" s="13">
+        <v>0</v>
+      </c>
+      <c r="S592" s="13">
+        <v>0</v>
+      </c>
+      <c r="T592" s="13">
+        <v>18</v>
+      </c>
+      <c r="U592" s="13">
+        <v>0</v>
+      </c>
+      <c r="V592" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>64</v>
+      </c>
+      <c r="B593">
+        <v>13</v>
+      </c>
+      <c r="C593" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D593" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E593" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F593" s="13">
+        <v>0</v>
+      </c>
+      <c r="G593" s="13">
+        <v>0</v>
+      </c>
+      <c r="H593" s="13">
+        <v>3</v>
+      </c>
+      <c r="I593" s="13">
+        <v>16</v>
+      </c>
+      <c r="J593" s="13">
+        <v>0</v>
+      </c>
+      <c r="K593" s="13">
+        <v>7</v>
+      </c>
+      <c r="L593" s="13">
+        <v>0</v>
+      </c>
+      <c r="M593" s="13">
+        <v>0</v>
+      </c>
+      <c r="N593" s="13">
+        <v>0</v>
+      </c>
+      <c r="O593" s="13">
+        <v>1</v>
+      </c>
+      <c r="P593" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q593" s="13">
+        <v>2</v>
+      </c>
+      <c r="R593" s="13">
+        <v>0</v>
+      </c>
+      <c r="S593" s="13">
+        <v>2</v>
+      </c>
+      <c r="T593" s="13">
+        <v>10</v>
+      </c>
+      <c r="U593" s="13">
+        <v>1</v>
+      </c>
+      <c r="V593" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>64</v>
+      </c>
+      <c r="B594">
+        <v>13</v>
+      </c>
+      <c r="C594" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D594" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E594" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F594" s="13">
+        <v>0</v>
+      </c>
+      <c r="G594" s="13">
+        <v>0</v>
+      </c>
+      <c r="H594" s="13">
+        <v>0</v>
+      </c>
+      <c r="I594" s="13">
+        <v>0</v>
+      </c>
+      <c r="J594" s="13">
+        <v>0</v>
+      </c>
+      <c r="K594" s="13">
+        <v>0</v>
+      </c>
+      <c r="L594" s="13">
+        <v>0</v>
+      </c>
+      <c r="M594" s="13">
+        <v>0</v>
+      </c>
+      <c r="N594" s="13">
+        <v>0</v>
+      </c>
+      <c r="O594" s="13">
+        <v>0</v>
+      </c>
+      <c r="P594" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q594" s="13">
+        <v>0</v>
+      </c>
+      <c r="R594" s="13">
+        <v>0</v>
+      </c>
+      <c r="S594" s="13">
+        <v>0</v>
+      </c>
+      <c r="T594" s="13">
+        <v>0</v>
+      </c>
+      <c r="U594" s="13">
+        <v>0</v>
+      </c>
+      <c r="V594" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>64</v>
+      </c>
+      <c r="B595">
+        <v>13</v>
+      </c>
+      <c r="C595" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D595" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E595" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F595" s="13">
+        <v>2</v>
+      </c>
+      <c r="G595" s="13">
+        <v>0</v>
+      </c>
+      <c r="H595" s="13">
+        <v>9</v>
+      </c>
+      <c r="I595" s="13">
+        <v>8</v>
+      </c>
+      <c r="J595" s="13">
+        <v>5</v>
+      </c>
+      <c r="K595" s="13">
+        <v>3</v>
+      </c>
+      <c r="L595" s="13">
+        <v>0</v>
+      </c>
+      <c r="M595" s="13">
+        <v>0</v>
+      </c>
+      <c r="N595" s="13">
+        <v>0</v>
+      </c>
+      <c r="O595" s="13">
+        <v>0</v>
+      </c>
+      <c r="P595" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q595" s="13">
+        <v>0</v>
+      </c>
+      <c r="R595" s="13">
+        <v>0</v>
+      </c>
+      <c r="S595" s="13">
+        <v>0</v>
+      </c>
+      <c r="T595" s="13">
+        <v>5</v>
+      </c>
+      <c r="U595" s="13">
+        <v>0</v>
+      </c>
+      <c r="V595" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>64</v>
+      </c>
+      <c r="B596">
+        <v>13</v>
+      </c>
+      <c r="C596" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D596" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E596" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F596" s="13">
+        <v>0</v>
+      </c>
+      <c r="G596" s="13">
+        <v>0</v>
+      </c>
+      <c r="H596" s="13">
+        <v>3</v>
+      </c>
+      <c r="I596" s="13">
+        <v>13</v>
+      </c>
+      <c r="J596" s="13">
+        <v>0</v>
+      </c>
+      <c r="K596" s="13">
+        <v>6</v>
+      </c>
+      <c r="L596" s="13">
+        <v>0</v>
+      </c>
+      <c r="M596" s="13">
+        <v>0</v>
+      </c>
+      <c r="N596" s="13">
+        <v>0</v>
+      </c>
+      <c r="O596" s="13">
+        <v>0</v>
+      </c>
+      <c r="P596" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q596" s="13">
+        <v>0</v>
+      </c>
+      <c r="R596" s="13">
+        <v>0</v>
+      </c>
+      <c r="S596" s="13">
+        <v>0</v>
+      </c>
+      <c r="T596" s="13">
+        <v>9</v>
+      </c>
+      <c r="U596" s="13">
+        <v>0</v>
+      </c>
+      <c r="V596" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>64</v>
+      </c>
+      <c r="B597">
+        <v>13</v>
+      </c>
+      <c r="C597" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D597" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E597" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F597" s="13">
+        <v>0</v>
+      </c>
+      <c r="G597" s="13">
+        <v>0</v>
+      </c>
+      <c r="H597" s="13">
+        <v>1</v>
+      </c>
+      <c r="I597" s="13">
+        <v>1</v>
+      </c>
+      <c r="J597" s="13">
+        <v>0</v>
+      </c>
+      <c r="K597" s="13">
+        <v>0</v>
+      </c>
+      <c r="L597" s="13">
+        <v>0</v>
+      </c>
+      <c r="M597" s="13">
+        <v>0</v>
+      </c>
+      <c r="N597" s="13">
+        <v>0</v>
+      </c>
+      <c r="O597" s="13">
+        <v>0</v>
+      </c>
+      <c r="P597" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q597" s="13">
+        <v>0</v>
+      </c>
+      <c r="R597" s="13">
+        <v>0</v>
+      </c>
+      <c r="S597" s="13">
+        <v>0</v>
+      </c>
+      <c r="T597" s="13">
+        <v>0</v>
+      </c>
+      <c r="U597" s="13">
+        <v>0</v>
+      </c>
+      <c r="V597" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>64</v>
+      </c>
+      <c r="B598">
+        <v>13</v>
+      </c>
+      <c r="C598" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D598" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E598" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F598" s="13">
+        <v>0</v>
+      </c>
+      <c r="G598" s="13">
+        <v>0</v>
+      </c>
+      <c r="H598" s="13">
+        <v>16</v>
+      </c>
+      <c r="I598" s="13">
+        <v>18</v>
+      </c>
+      <c r="J598" s="13">
+        <v>4</v>
+      </c>
+      <c r="K598" s="13">
+        <v>4</v>
+      </c>
+      <c r="L598" s="13">
+        <v>0</v>
+      </c>
+      <c r="M598" s="13">
+        <v>0</v>
+      </c>
+      <c r="N598" s="13">
+        <v>0</v>
+      </c>
+      <c r="O598" s="13">
+        <v>0</v>
+      </c>
+      <c r="P598" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q598" s="13">
+        <v>0</v>
+      </c>
+      <c r="R598" s="13">
+        <v>0</v>
+      </c>
+      <c r="S598" s="13">
+        <v>0</v>
+      </c>
+      <c r="T598" s="13">
+        <v>7</v>
+      </c>
+      <c r="U598" s="13">
+        <v>0</v>
+      </c>
+      <c r="V598" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>64</v>
+      </c>
+      <c r="B599">
+        <v>13</v>
+      </c>
+      <c r="C599" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D599" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E599" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F599" s="13">
+        <v>0</v>
+      </c>
+      <c r="G599" s="13">
+        <v>0</v>
+      </c>
+      <c r="H599" s="13">
+        <v>3</v>
+      </c>
+      <c r="I599" s="13">
+        <v>20</v>
+      </c>
+      <c r="J599" s="13">
+        <v>0</v>
+      </c>
+      <c r="K599" s="13">
+        <v>3</v>
+      </c>
+      <c r="L599" s="13">
+        <v>0</v>
+      </c>
+      <c r="M599" s="13">
+        <v>8</v>
+      </c>
+      <c r="N599" s="13">
+        <v>0</v>
+      </c>
+      <c r="O599" s="13">
+        <v>0</v>
+      </c>
+      <c r="P599" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q599" s="13">
+        <v>3</v>
+      </c>
+      <c r="R599" s="13">
+        <v>0</v>
+      </c>
+      <c r="S599" s="13">
+        <v>0</v>
+      </c>
+      <c r="T599" s="13">
+        <v>22</v>
+      </c>
+      <c r="U599" s="13">
+        <v>0</v>
+      </c>
+      <c r="V599" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>64</v>
+      </c>
+      <c r="B600">
+        <v>13</v>
+      </c>
+      <c r="C600" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D600" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E600" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F600" s="13">
+        <v>0</v>
+      </c>
+      <c r="G600" s="13">
+        <v>0</v>
+      </c>
+      <c r="H600" s="13">
+        <v>0</v>
+      </c>
+      <c r="I600" s="13">
+        <v>0</v>
+      </c>
+      <c r="J600" s="13">
+        <v>0</v>
+      </c>
+      <c r="K600" s="13">
+        <v>0</v>
+      </c>
+      <c r="L600" s="13">
+        <v>0</v>
+      </c>
+      <c r="M600" s="13">
+        <v>1</v>
+      </c>
+      <c r="N600" s="13">
+        <v>0</v>
+      </c>
+      <c r="O600" s="13">
+        <v>0</v>
+      </c>
+      <c r="P600" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q600" s="13">
+        <v>0</v>
+      </c>
+      <c r="R600" s="13">
+        <v>0</v>
+      </c>
+      <c r="S600" s="13">
+        <v>0</v>
+      </c>
+      <c r="T600" s="13">
+        <v>0</v>
+      </c>
+      <c r="U600" s="13">
+        <v>0</v>
+      </c>
+      <c r="V600" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>64</v>
+      </c>
+      <c r="B601">
+        <v>13</v>
+      </c>
+      <c r="C601" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D601" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E601" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F601" s="13">
+        <v>0</v>
+      </c>
+      <c r="G601" s="13">
+        <v>0</v>
+      </c>
+      <c r="H601" s="13">
+        <v>11</v>
+      </c>
+      <c r="I601" s="13">
+        <v>11</v>
+      </c>
+      <c r="J601" s="13">
+        <v>1</v>
+      </c>
+      <c r="K601" s="13">
+        <v>1</v>
+      </c>
+      <c r="L601" s="13">
+        <v>6</v>
+      </c>
+      <c r="M601" s="13">
+        <v>5</v>
+      </c>
+      <c r="N601" s="13">
+        <v>1</v>
+      </c>
+      <c r="O601" s="13">
+        <v>0</v>
+      </c>
+      <c r="P601" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q601" s="13">
+        <v>0</v>
+      </c>
+      <c r="R601" s="13">
+        <v>0</v>
+      </c>
+      <c r="S601" s="13">
+        <v>0</v>
+      </c>
+      <c r="T601" s="13">
+        <v>3</v>
+      </c>
+      <c r="U601" s="13">
+        <v>0</v>
+      </c>
+      <c r="V601" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>64</v>
+      </c>
+      <c r="B602">
+        <v>13</v>
+      </c>
+      <c r="C602" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D602" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E602" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F602" s="13">
+        <v>0</v>
+      </c>
+      <c r="G602" s="13">
+        <v>0</v>
+      </c>
+      <c r="H602" s="13">
+        <v>2</v>
+      </c>
+      <c r="I602" s="13">
+        <v>15</v>
+      </c>
+      <c r="J602" s="13">
+        <v>0</v>
+      </c>
+      <c r="K602" s="13">
+        <v>9</v>
+      </c>
+      <c r="L602" s="13">
+        <v>0</v>
+      </c>
+      <c r="M602" s="13">
+        <v>0</v>
+      </c>
+      <c r="N602" s="13">
+        <v>0</v>
+      </c>
+      <c r="O602" s="13">
+        <v>1</v>
+      </c>
+      <c r="P602" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q602" s="13">
+        <v>2</v>
+      </c>
+      <c r="R602" s="13">
+        <v>0</v>
+      </c>
+      <c r="S602" s="13">
+        <v>0</v>
+      </c>
+      <c r="T602" s="13">
+        <v>12</v>
+      </c>
+      <c r="U602" s="13">
+        <v>0</v>
+      </c>
+      <c r="V602" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>64</v>
+      </c>
+      <c r="B603">
+        <v>13</v>
+      </c>
+      <c r="C603" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D603" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E603" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F603" s="13">
+        <v>0</v>
+      </c>
+      <c r="G603" s="13">
+        <v>0</v>
+      </c>
+      <c r="H603" s="13">
+        <v>0</v>
+      </c>
+      <c r="I603" s="13">
+        <v>0</v>
+      </c>
+      <c r="J603" s="13">
+        <v>0</v>
+      </c>
+      <c r="K603" s="13">
+        <v>0</v>
+      </c>
+      <c r="L603" s="13">
+        <v>0</v>
+      </c>
+      <c r="M603" s="13">
+        <v>0</v>
+      </c>
+      <c r="N603" s="13">
+        <v>0</v>
+      </c>
+      <c r="O603" s="13">
+        <v>0</v>
+      </c>
+      <c r="P603" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q603" s="13">
+        <v>0</v>
+      </c>
+      <c r="R603" s="13">
+        <v>0</v>
+      </c>
+      <c r="S603" s="13">
+        <v>0</v>
+      </c>
+      <c r="T603" s="13">
+        <v>0</v>
+      </c>
+      <c r="U603" s="13">
+        <v>0</v>
+      </c>
+      <c r="V603" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>64</v>
+      </c>
+      <c r="B604">
+        <v>13</v>
+      </c>
+      <c r="C604" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D604" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E604" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F604" s="13">
+        <v>0</v>
+      </c>
+      <c r="G604" s="13">
+        <v>0</v>
+      </c>
+      <c r="H604" s="13">
+        <v>18</v>
+      </c>
+      <c r="I604" s="13">
+        <v>14</v>
+      </c>
+      <c r="J604" s="13">
+        <v>9</v>
+      </c>
+      <c r="K604" s="13">
+        <v>6</v>
+      </c>
+      <c r="L604" s="13">
+        <v>0</v>
+      </c>
+      <c r="M604" s="13">
+        <v>0</v>
+      </c>
+      <c r="N604" s="13">
+        <v>0</v>
+      </c>
+      <c r="O604" s="13">
+        <v>1</v>
+      </c>
+      <c r="P604" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q604" s="13">
+        <v>0</v>
+      </c>
+      <c r="R604" s="13">
+        <v>0</v>
+      </c>
+      <c r="S604" s="13">
+        <v>0</v>
+      </c>
+      <c r="T604" s="13">
+        <v>1</v>
+      </c>
+      <c r="U604" s="13">
+        <v>2</v>
+      </c>
+      <c r="V604" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>64</v>
+      </c>
+      <c r="B605">
+        <v>13</v>
+      </c>
+      <c r="C605" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D605" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E605" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F605" s="13">
+        <v>0</v>
+      </c>
+      <c r="G605" s="13">
+        <v>1</v>
+      </c>
+      <c r="H605" s="13">
+        <v>3</v>
+      </c>
+      <c r="I605" s="13">
+        <v>9</v>
+      </c>
+      <c r="J605" s="13">
+        <v>0</v>
+      </c>
+      <c r="K605" s="13">
+        <v>3</v>
+      </c>
+      <c r="L605" s="13">
+        <v>0</v>
+      </c>
+      <c r="M605" s="13">
+        <v>0</v>
+      </c>
+      <c r="N605" s="13">
+        <v>0</v>
+      </c>
+      <c r="O605" s="13">
+        <v>1</v>
+      </c>
+      <c r="P605" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q605" s="13">
+        <v>0</v>
+      </c>
+      <c r="R605" s="13">
+        <v>0</v>
+      </c>
+      <c r="S605" s="13">
+        <v>0</v>
+      </c>
+      <c r="T605" s="13">
+        <v>12</v>
+      </c>
+      <c r="U605" s="13">
+        <v>0</v>
+      </c>
+      <c r="V605" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>64</v>
+      </c>
+      <c r="B606">
+        <v>13</v>
+      </c>
+      <c r="C606" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D606" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E606" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F606" s="13">
+        <v>0</v>
+      </c>
+      <c r="G606" s="13">
+        <v>0</v>
+      </c>
+      <c r="H606" s="13">
+        <v>1</v>
+      </c>
+      <c r="I606" s="13">
+        <v>0</v>
+      </c>
+      <c r="J606" s="13">
+        <v>0</v>
+      </c>
+      <c r="K606" s="13">
+        <v>0</v>
+      </c>
+      <c r="L606" s="13">
+        <v>0</v>
+      </c>
+      <c r="M606" s="13">
+        <v>0</v>
+      </c>
+      <c r="N606" s="13">
+        <v>0</v>
+      </c>
+      <c r="O606" s="13">
+        <v>0</v>
+      </c>
+      <c r="P606" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q606" s="13">
+        <v>0</v>
+      </c>
+      <c r="R606" s="13">
+        <v>0</v>
+      </c>
+      <c r="S606" s="13">
+        <v>0</v>
+      </c>
+      <c r="T606" s="13">
+        <v>0</v>
+      </c>
+      <c r="U606" s="13">
+        <v>0</v>
+      </c>
+      <c r="V606" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>64</v>
+      </c>
+      <c r="B607">
+        <v>13</v>
+      </c>
+      <c r="C607" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D607" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E607" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F607" s="13">
+        <v>0</v>
+      </c>
+      <c r="G607" s="13">
+        <v>2</v>
+      </c>
+      <c r="H607" s="13">
+        <v>13</v>
+      </c>
+      <c r="I607" s="13">
+        <v>7</v>
+      </c>
+      <c r="J607" s="13">
+        <v>4</v>
+      </c>
+      <c r="K607" s="13">
+        <v>1</v>
+      </c>
+      <c r="L607" s="13">
+        <v>0</v>
+      </c>
+      <c r="M607" s="13">
+        <v>0</v>
+      </c>
+      <c r="N607" s="13">
+        <v>0</v>
+      </c>
+      <c r="O607" s="13">
+        <v>0</v>
+      </c>
+      <c r="P607" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q607" s="13">
+        <v>0</v>
+      </c>
+      <c r="R607" s="13">
+        <v>0</v>
+      </c>
+      <c r="S607" s="13">
+        <v>0</v>
+      </c>
+      <c r="T607" s="13">
+        <v>8</v>
+      </c>
+      <c r="U607" s="13">
+        <v>0</v>
+      </c>
+      <c r="V607" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>64</v>
+      </c>
+      <c r="B608">
+        <v>13</v>
+      </c>
+      <c r="C608" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D608" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E608" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F608" s="13">
+        <v>0</v>
+      </c>
+      <c r="G608" s="13">
+        <v>0</v>
+      </c>
+      <c r="H608" s="13">
+        <v>1</v>
+      </c>
+      <c r="I608" s="13">
+        <v>15</v>
+      </c>
+      <c r="J608" s="13">
+        <v>0</v>
+      </c>
+      <c r="K608" s="13">
+        <v>1</v>
+      </c>
+      <c r="L608" s="13">
+        <v>1</v>
+      </c>
+      <c r="M608" s="13">
+        <v>10</v>
+      </c>
+      <c r="N608" s="13">
+        <v>0</v>
+      </c>
+      <c r="O608" s="13">
+        <v>2</v>
+      </c>
+      <c r="P608" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q608" s="13">
+        <v>3</v>
+      </c>
+      <c r="R608" s="13">
+        <v>0</v>
+      </c>
+      <c r="S608" s="13">
+        <v>2</v>
+      </c>
+      <c r="T608" s="13">
+        <v>28</v>
+      </c>
+      <c r="U608" s="13">
+        <v>1</v>
+      </c>
+      <c r="V608" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>64</v>
+      </c>
+      <c r="B609">
+        <v>13</v>
+      </c>
+      <c r="C609" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D609" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E609" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F609" s="13">
+        <v>0</v>
+      </c>
+      <c r="G609" s="13">
+        <v>0</v>
+      </c>
+      <c r="H609" s="13">
+        <v>2</v>
+      </c>
+      <c r="I609" s="13">
+        <v>3</v>
+      </c>
+      <c r="J609" s="13">
+        <v>0</v>
+      </c>
+      <c r="K609" s="13">
+        <v>0</v>
+      </c>
+      <c r="L609" s="13">
+        <v>0</v>
+      </c>
+      <c r="M609" s="13">
+        <v>0</v>
+      </c>
+      <c r="N609" s="13">
+        <v>0</v>
+      </c>
+      <c r="O609" s="13">
+        <v>0</v>
+      </c>
+      <c r="P609" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q609" s="13">
+        <v>0</v>
+      </c>
+      <c r="R609" s="13">
+        <v>0</v>
+      </c>
+      <c r="S609" s="13">
+        <v>0</v>
+      </c>
+      <c r="T609" s="13">
+        <v>0</v>
+      </c>
+      <c r="U609" s="13">
+        <v>0</v>
+      </c>
+      <c r="V609" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>64</v>
+      </c>
+      <c r="B610">
+        <v>13</v>
+      </c>
+      <c r="C610" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D610" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E610" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F610" s="13">
+        <v>0</v>
+      </c>
+      <c r="G610" s="13">
+        <v>1</v>
+      </c>
+      <c r="H610" s="13">
+        <v>11</v>
+      </c>
+      <c r="I610" s="13">
+        <v>8</v>
+      </c>
+      <c r="J610" s="13">
+        <v>0</v>
+      </c>
+      <c r="K610" s="13">
+        <v>0</v>
+      </c>
+      <c r="L610" s="13">
+        <v>5</v>
+      </c>
+      <c r="M610" s="13">
+        <v>5</v>
+      </c>
+      <c r="N610" s="13">
+        <v>0</v>
+      </c>
+      <c r="O610" s="13">
+        <v>0</v>
+      </c>
+      <c r="P610" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q610" s="13">
+        <v>0</v>
+      </c>
+      <c r="R610" s="13">
+        <v>0</v>
+      </c>
+      <c r="S610" s="13">
+        <v>0</v>
+      </c>
+      <c r="T610" s="13">
+        <v>7</v>
+      </c>
+      <c r="U610" s="13">
+        <v>0</v>
+      </c>
+      <c r="V610" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>64</v>
+      </c>
+      <c r="B611">
+        <v>13</v>
+      </c>
+      <c r="C611" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D611" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E611" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F611" s="13">
+        <v>0</v>
+      </c>
+      <c r="G611" s="13">
+        <v>0</v>
+      </c>
+      <c r="H611" s="13">
+        <v>3</v>
+      </c>
+      <c r="I611" s="13">
+        <v>6</v>
+      </c>
+      <c r="J611" s="13">
+        <v>0</v>
+      </c>
+      <c r="K611" s="13">
+        <v>2</v>
+      </c>
+      <c r="L611" s="13">
+        <v>0</v>
+      </c>
+      <c r="M611" s="13">
+        <v>0</v>
+      </c>
+      <c r="N611" s="13">
+        <v>0</v>
+      </c>
+      <c r="O611" s="13">
+        <v>0</v>
+      </c>
+      <c r="P611" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q611" s="13">
+        <v>0</v>
+      </c>
+      <c r="R611" s="13">
+        <v>0</v>
+      </c>
+      <c r="S611" s="13">
+        <v>0</v>
+      </c>
+      <c r="T611" s="13">
+        <v>10</v>
+      </c>
+      <c r="U611" s="13">
+        <v>0</v>
+      </c>
+      <c r="V611" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>64</v>
+      </c>
+      <c r="B612">
+        <v>13</v>
+      </c>
+      <c r="C612" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D612" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E612" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F612" s="13">
+        <v>0</v>
+      </c>
+      <c r="G612" s="13">
+        <v>0</v>
+      </c>
+      <c r="H612" s="13">
+        <v>1</v>
+      </c>
+      <c r="I612" s="13">
+        <v>3</v>
+      </c>
+      <c r="J612" s="13">
+        <v>0</v>
+      </c>
+      <c r="K612" s="13">
+        <v>0</v>
+      </c>
+      <c r="L612" s="13">
+        <v>0</v>
+      </c>
+      <c r="M612" s="13">
+        <v>0</v>
+      </c>
+      <c r="N612" s="13">
+        <v>0</v>
+      </c>
+      <c r="O612" s="13">
+        <v>0</v>
+      </c>
+      <c r="P612" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q612" s="13">
+        <v>0</v>
+      </c>
+      <c r="R612" s="13">
+        <v>0</v>
+      </c>
+      <c r="S612" s="13">
+        <v>0</v>
+      </c>
+      <c r="T612" s="13">
+        <v>4</v>
+      </c>
+      <c r="U612" s="13">
+        <v>0</v>
+      </c>
+      <c r="V612" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>64</v>
+      </c>
+      <c r="B613">
+        <v>13</v>
+      </c>
+      <c r="C613" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D613" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E613" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F613" s="13">
+        <v>1</v>
+      </c>
+      <c r="G613" s="13">
+        <v>2</v>
+      </c>
+      <c r="H613" s="13">
+        <v>28</v>
+      </c>
+      <c r="I613" s="13">
+        <v>24</v>
+      </c>
+      <c r="J613" s="13">
+        <v>7</v>
+      </c>
+      <c r="K613" s="13">
+        <v>4</v>
+      </c>
+      <c r="L613" s="13">
+        <v>0</v>
+      </c>
+      <c r="M613" s="13">
+        <v>0</v>
+      </c>
+      <c r="N613" s="13">
+        <v>0</v>
+      </c>
+      <c r="O613" s="13">
+        <v>1</v>
+      </c>
+      <c r="P613" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q613" s="13">
+        <v>0</v>
+      </c>
+      <c r="R613" s="13">
+        <v>0</v>
+      </c>
+      <c r="S613" s="13">
+        <v>0</v>
+      </c>
+      <c r="T613" s="13">
+        <v>25</v>
+      </c>
+      <c r="U613" s="13">
+        <v>4</v>
+      </c>
+      <c r="V613" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>64</v>
+      </c>
+      <c r="B614">
+        <v>13</v>
+      </c>
+      <c r="C614" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D614" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E614" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F614" s="13">
+        <v>0</v>
+      </c>
+      <c r="G614" s="13">
+        <v>1</v>
+      </c>
+      <c r="H614" s="13">
+        <v>5</v>
+      </c>
+      <c r="I614" s="13">
+        <v>15</v>
+      </c>
+      <c r="J614" s="13">
+        <v>0</v>
+      </c>
+      <c r="K614" s="13">
+        <v>1</v>
+      </c>
+      <c r="L614" s="13">
+        <v>1</v>
+      </c>
+      <c r="M614" s="13">
+        <v>7</v>
+      </c>
+      <c r="N614" s="13">
+        <v>0</v>
+      </c>
+      <c r="O614" s="13">
+        <v>1</v>
+      </c>
+      <c r="P614" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q614" s="13">
+        <v>0</v>
+      </c>
+      <c r="R614" s="13">
+        <v>0</v>
+      </c>
+      <c r="S614" s="13">
+        <v>0</v>
+      </c>
+      <c r="T614" s="13">
+        <v>25</v>
+      </c>
+      <c r="U614" s="13">
+        <v>0</v>
+      </c>
+      <c r="V614" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>64</v>
+      </c>
+      <c r="B615">
+        <v>13</v>
+      </c>
+      <c r="C615" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D615" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E615" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F615" s="13">
+        <v>0</v>
+      </c>
+      <c r="G615" s="13">
+        <v>0</v>
+      </c>
+      <c r="H615" s="13">
+        <v>1</v>
+      </c>
+      <c r="I615" s="13">
+        <v>1</v>
+      </c>
+      <c r="J615" s="13">
+        <v>0</v>
+      </c>
+      <c r="K615" s="13">
+        <v>0</v>
+      </c>
+      <c r="L615" s="13">
+        <v>0</v>
+      </c>
+      <c r="M615" s="13">
+        <v>0</v>
+      </c>
+      <c r="N615" s="13">
+        <v>0</v>
+      </c>
+      <c r="O615" s="13">
+        <v>0</v>
+      </c>
+      <c r="P615" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q615" s="13">
+        <v>0</v>
+      </c>
+      <c r="R615" s="13">
+        <v>0</v>
+      </c>
+      <c r="S615" s="13">
+        <v>0</v>
+      </c>
+      <c r="T615" s="13">
+        <v>0</v>
+      </c>
+      <c r="U615" s="13">
+        <v>0</v>
+      </c>
+      <c r="V615" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>64</v>
+      </c>
+      <c r="B616">
+        <v>13</v>
+      </c>
+      <c r="C616" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D616" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E616" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F616" s="13">
+        <v>0</v>
+      </c>
+      <c r="G616" s="13">
+        <v>0</v>
+      </c>
+      <c r="H616" s="13">
+        <v>8</v>
+      </c>
+      <c r="I616" s="13">
+        <v>4</v>
+      </c>
+      <c r="J616" s="13">
+        <v>0</v>
+      </c>
+      <c r="K616" s="13">
+        <v>0</v>
+      </c>
+      <c r="L616" s="13">
+        <v>3</v>
+      </c>
+      <c r="M616" s="13">
+        <v>1</v>
+      </c>
+      <c r="N616" s="13">
+        <v>0</v>
+      </c>
+      <c r="O616" s="13">
+        <v>0</v>
+      </c>
+      <c r="P616" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q616" s="13">
+        <v>0</v>
+      </c>
+      <c r="R616" s="13">
+        <v>0</v>
+      </c>
+      <c r="S616" s="13">
+        <v>0</v>
+      </c>
+      <c r="T616" s="13">
+        <v>4</v>
+      </c>
+      <c r="U616" s="13">
+        <v>0</v>
+      </c>
+      <c r="V616" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>64</v>
+      </c>
+      <c r="B617">
+        <v>13</v>
+      </c>
+      <c r="C617" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D617" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E617" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F617" s="13">
+        <v>0</v>
+      </c>
+      <c r="G617" s="13">
+        <v>0</v>
+      </c>
+      <c r="H617" s="13">
+        <v>0</v>
+      </c>
+      <c r="I617" s="13">
+        <v>12</v>
+      </c>
+      <c r="J617" s="13">
+        <v>0</v>
+      </c>
+      <c r="K617" s="13">
+        <v>7</v>
+      </c>
+      <c r="L617" s="13">
+        <v>0</v>
+      </c>
+      <c r="M617" s="13">
+        <v>0</v>
+      </c>
+      <c r="N617" s="13">
+        <v>0</v>
+      </c>
+      <c r="O617" s="13">
+        <v>4</v>
+      </c>
+      <c r="P617" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q617" s="13">
+        <v>2</v>
+      </c>
+      <c r="R617" s="13">
+        <v>0</v>
+      </c>
+      <c r="S617" s="13">
+        <v>0</v>
+      </c>
+      <c r="T617" s="13">
+        <v>19</v>
+      </c>
+      <c r="U617" s="13">
+        <v>1</v>
+      </c>
+      <c r="V617" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>64</v>
+      </c>
+      <c r="B618">
+        <v>13</v>
+      </c>
+      <c r="C618" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D618" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E618" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F618" s="13">
+        <v>0</v>
+      </c>
+      <c r="G618" s="13">
+        <v>0</v>
+      </c>
+      <c r="H618" s="13">
+        <v>0</v>
+      </c>
+      <c r="I618" s="13">
+        <v>0</v>
+      </c>
+      <c r="J618" s="13">
+        <v>0</v>
+      </c>
+      <c r="K618" s="13">
+        <v>0</v>
+      </c>
+      <c r="L618" s="13">
+        <v>0</v>
+      </c>
+      <c r="M618" s="13">
+        <v>0</v>
+      </c>
+      <c r="N618" s="13">
+        <v>0</v>
+      </c>
+      <c r="O618" s="13">
+        <v>0</v>
+      </c>
+      <c r="P618" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q618" s="13">
+        <v>0</v>
+      </c>
+      <c r="R618" s="13">
+        <v>0</v>
+      </c>
+      <c r="S618" s="13">
+        <v>0</v>
+      </c>
+      <c r="T618" s="13">
+        <v>0</v>
+      </c>
+      <c r="U618" s="13">
+        <v>0</v>
+      </c>
+      <c r="V618" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>64</v>
+      </c>
+      <c r="B619">
+        <v>13</v>
+      </c>
+      <c r="C619" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D619" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E619" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F619" s="13">
+        <v>0</v>
+      </c>
+      <c r="G619" s="13">
+        <v>1</v>
+      </c>
+      <c r="H619" s="13">
+        <v>14</v>
+      </c>
+      <c r="I619" s="13">
+        <v>8</v>
+      </c>
+      <c r="J619" s="13">
+        <v>8</v>
+      </c>
+      <c r="K619" s="13">
+        <v>4</v>
+      </c>
+      <c r="L619" s="13">
+        <v>0</v>
+      </c>
+      <c r="M619" s="13">
+        <v>0</v>
+      </c>
+      <c r="N619" s="13">
+        <v>0</v>
+      </c>
+      <c r="O619" s="13">
+        <v>0</v>
+      </c>
+      <c r="P619" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q619" s="13">
+        <v>0</v>
+      </c>
+      <c r="R619" s="13">
+        <v>0</v>
+      </c>
+      <c r="S619" s="13">
+        <v>1</v>
+      </c>
+      <c r="T619" s="13">
+        <v>12</v>
+      </c>
+      <c r="U619" s="13">
+        <v>0</v>
+      </c>
+      <c r="V619" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>64</v>
+      </c>
+      <c r="B620">
+        <v>13</v>
+      </c>
+      <c r="C620" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D620" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E620" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F620" s="13">
+        <v>0</v>
+      </c>
+      <c r="G620" s="13">
+        <v>1</v>
+      </c>
+      <c r="H620" s="13">
+        <v>2</v>
+      </c>
+      <c r="I620" s="13">
+        <v>15</v>
+      </c>
+      <c r="J620" s="13">
+        <v>0</v>
+      </c>
+      <c r="K620" s="13">
+        <v>8</v>
+      </c>
+      <c r="L620" s="13">
+        <v>0</v>
+      </c>
+      <c r="M620" s="13">
+        <v>0</v>
+      </c>
+      <c r="N620" s="13">
+        <v>0</v>
+      </c>
+      <c r="O620" s="13">
+        <v>2</v>
+      </c>
+      <c r="P620" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q620" s="13">
+        <v>1</v>
+      </c>
+      <c r="R620" s="13">
+        <v>0</v>
+      </c>
+      <c r="S620" s="13">
+        <v>1</v>
+      </c>
+      <c r="T620" s="13">
+        <v>20</v>
+      </c>
+      <c r="U620" s="13">
+        <v>0</v>
+      </c>
+      <c r="V620" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>64</v>
+      </c>
+      <c r="B621">
+        <v>13</v>
+      </c>
+      <c r="C621" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D621" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E621" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F621" s="13">
+        <v>0</v>
+      </c>
+      <c r="G621" s="13">
+        <v>0</v>
+      </c>
+      <c r="H621" s="13">
+        <v>0</v>
+      </c>
+      <c r="I621" s="13">
+        <v>0</v>
+      </c>
+      <c r="J621" s="13">
+        <v>0</v>
+      </c>
+      <c r="K621" s="13">
+        <v>0</v>
+      </c>
+      <c r="L621" s="13">
+        <v>0</v>
+      </c>
+      <c r="M621" s="13">
+        <v>0</v>
+      </c>
+      <c r="N621" s="13">
+        <v>0</v>
+      </c>
+      <c r="O621" s="13">
+        <v>0</v>
+      </c>
+      <c r="P621" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q621" s="13">
+        <v>0</v>
+      </c>
+      <c r="R621" s="13">
+        <v>0</v>
+      </c>
+      <c r="S621" s="13">
+        <v>0</v>
+      </c>
+      <c r="T621" s="13">
+        <v>0</v>
+      </c>
+      <c r="U621" s="13">
+        <v>0</v>
+      </c>
+      <c r="V621" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>64</v>
+      </c>
+      <c r="B622">
+        <v>13</v>
+      </c>
+      <c r="C622" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D622" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E622" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F622" s="13">
+        <v>1</v>
+      </c>
+      <c r="G622" s="13">
+        <v>0</v>
+      </c>
+      <c r="H622" s="13">
+        <v>18</v>
+      </c>
+      <c r="I622" s="13">
+        <v>16</v>
+      </c>
+      <c r="J622" s="13">
+        <v>2</v>
+      </c>
+      <c r="K622" s="13">
+        <v>0</v>
+      </c>
+      <c r="L622" s="13">
+        <v>0</v>
+      </c>
+      <c r="M622" s="13">
+        <v>0</v>
+      </c>
+      <c r="N622" s="13">
+        <v>0</v>
+      </c>
+      <c r="O622" s="13">
+        <v>0</v>
+      </c>
+      <c r="P622" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q622" s="13">
+        <v>0</v>
+      </c>
+      <c r="R622" s="13">
+        <v>0</v>
+      </c>
+      <c r="S622" s="13">
+        <v>0</v>
+      </c>
+      <c r="T622" s="13">
+        <v>1</v>
+      </c>
+      <c r="U622" s="13">
+        <v>0</v>
+      </c>
+      <c r="V622" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>64</v>
+      </c>
+      <c r="B623">
+        <v>13</v>
+      </c>
+      <c r="C623" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D623" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E623" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F623" s="13">
+        <v>0</v>
+      </c>
+      <c r="G623" s="13">
+        <v>0</v>
+      </c>
+      <c r="H623" s="13">
+        <v>3</v>
+      </c>
+      <c r="I623" s="13">
+        <v>18</v>
+      </c>
+      <c r="J623" s="13">
+        <v>0</v>
+      </c>
+      <c r="K623" s="13">
+        <v>5</v>
+      </c>
+      <c r="L623" s="13">
+        <v>0</v>
+      </c>
+      <c r="M623" s="13">
+        <v>0</v>
+      </c>
+      <c r="N623" s="13">
+        <v>0</v>
+      </c>
+      <c r="O623" s="13">
+        <v>4</v>
+      </c>
+      <c r="P623" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q623" s="13">
+        <v>0</v>
+      </c>
+      <c r="R623" s="13">
+        <v>0</v>
+      </c>
+      <c r="S623" s="13">
+        <v>2</v>
+      </c>
+      <c r="T623" s="13">
+        <v>13</v>
+      </c>
+      <c r="U623" s="13">
+        <v>1</v>
+      </c>
+      <c r="V623" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>64</v>
+      </c>
+      <c r="B624">
+        <v>13</v>
+      </c>
+      <c r="C624" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D624" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E624" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F624" s="13">
+        <v>0</v>
+      </c>
+      <c r="G624" s="13">
+        <v>0</v>
+      </c>
+      <c r="H624" s="13">
+        <v>0</v>
+      </c>
+      <c r="I624" s="13">
+        <v>1</v>
+      </c>
+      <c r="J624" s="13">
+        <v>0</v>
+      </c>
+      <c r="K624" s="13">
+        <v>0</v>
+      </c>
+      <c r="L624" s="13">
+        <v>0</v>
+      </c>
+      <c r="M624" s="13">
+        <v>0</v>
+      </c>
+      <c r="N624" s="13">
+        <v>0</v>
+      </c>
+      <c r="O624" s="13">
+        <v>0</v>
+      </c>
+      <c r="P624" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q624" s="13">
+        <v>0</v>
+      </c>
+      <c r="R624" s="13">
+        <v>0</v>
+      </c>
+      <c r="S624" s="13">
+        <v>0</v>
+      </c>
+      <c r="T624" s="13">
+        <v>0</v>
+      </c>
+      <c r="U624" s="13">
+        <v>0</v>
+      </c>
+      <c r="V624" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>64</v>
+      </c>
+      <c r="B625">
+        <v>13</v>
+      </c>
+      <c r="C625" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D625" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E625" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F625" s="13">
+        <v>0</v>
+      </c>
+      <c r="G625" s="13">
+        <v>0</v>
+      </c>
+      <c r="H625" s="13">
+        <v>9</v>
+      </c>
+      <c r="I625" s="13">
+        <v>9</v>
+      </c>
+      <c r="J625" s="13">
+        <v>2</v>
+      </c>
+      <c r="K625" s="13">
+        <v>1</v>
+      </c>
+      <c r="L625" s="13">
+        <v>0</v>
+      </c>
+      <c r="M625" s="13">
+        <v>0</v>
+      </c>
+      <c r="N625" s="13">
+        <v>0</v>
+      </c>
+      <c r="O625" s="13">
+        <v>0</v>
+      </c>
+      <c r="P625" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q625" s="13">
+        <v>0</v>
+      </c>
+      <c r="R625" s="13">
+        <v>0</v>
+      </c>
+      <c r="S625" s="13">
+        <v>0</v>
+      </c>
+      <c r="T625" s="13">
+        <v>4</v>
+      </c>
+      <c r="U625" s="13">
+        <v>0</v>
+      </c>
+      <c r="V625" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>64</v>
+      </c>
+      <c r="B626">
+        <v>13</v>
+      </c>
+      <c r="C626" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D626" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E626" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F626" s="13">
+        <v>0</v>
+      </c>
+      <c r="G626" s="13">
+        <v>1</v>
+      </c>
+      <c r="H626" s="13">
+        <v>2</v>
+      </c>
+      <c r="I626" s="13">
+        <v>9</v>
+      </c>
+      <c r="J626" s="13">
+        <v>0</v>
+      </c>
+      <c r="K626" s="13">
+        <v>4</v>
+      </c>
+      <c r="L626" s="13">
+        <v>0</v>
+      </c>
+      <c r="M626" s="13">
+        <v>5</v>
+      </c>
+      <c r="N626" s="13">
+        <v>0</v>
+      </c>
+      <c r="O626" s="13">
+        <v>0</v>
+      </c>
+      <c r="P626" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q626" s="13">
+        <v>2</v>
+      </c>
+      <c r="R626" s="13">
+        <v>0</v>
+      </c>
+      <c r="S626" s="13">
+        <v>1</v>
+      </c>
+      <c r="T626" s="13">
+        <v>23</v>
+      </c>
+      <c r="U626" s="13">
+        <v>0</v>
+      </c>
+      <c r="V626" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>64</v>
+      </c>
+      <c r="B627">
+        <v>13</v>
+      </c>
+      <c r="C627" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D627" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E627" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F627" s="13">
+        <v>0</v>
+      </c>
+      <c r="G627" s="13">
+        <v>0</v>
+      </c>
+      <c r="H627" s="13">
+        <v>0</v>
+      </c>
+      <c r="I627" s="13">
+        <v>0</v>
+      </c>
+      <c r="J627" s="13">
+        <v>0</v>
+      </c>
+      <c r="K627" s="13">
+        <v>0</v>
+      </c>
+      <c r="L627" s="13">
+        <v>0</v>
+      </c>
+      <c r="M627" s="13">
+        <v>0</v>
+      </c>
+      <c r="N627" s="13">
+        <v>0</v>
+      </c>
+      <c r="O627" s="13">
+        <v>0</v>
+      </c>
+      <c r="P627" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q627" s="13">
+        <v>0</v>
+      </c>
+      <c r="R627" s="13">
+        <v>0</v>
+      </c>
+      <c r="S627" s="13">
+        <v>0</v>
+      </c>
+      <c r="T627" s="13">
+        <v>0</v>
+      </c>
+      <c r="U627" s="13">
+        <v>0</v>
+      </c>
+      <c r="V627" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>64</v>
+      </c>
+      <c r="B628">
+        <v>13</v>
+      </c>
+      <c r="C628" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D628" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E628" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F628" s="13">
+        <v>0</v>
+      </c>
+      <c r="G628" s="13">
+        <v>0</v>
+      </c>
+      <c r="H628" s="13">
+        <v>15</v>
+      </c>
+      <c r="I628" s="13">
+        <v>13</v>
+      </c>
+      <c r="J628" s="13">
+        <v>3</v>
+      </c>
+      <c r="K628" s="13">
+        <v>3</v>
+      </c>
+      <c r="L628" s="13">
+        <v>6</v>
+      </c>
+      <c r="M628" s="13">
+        <v>4</v>
+      </c>
+      <c r="N628" s="13">
+        <v>0</v>
+      </c>
+      <c r="O628" s="13">
+        <v>0</v>
+      </c>
+      <c r="P628" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q628" s="13">
+        <v>1</v>
+      </c>
+      <c r="R628" s="13">
+        <v>0</v>
+      </c>
+      <c r="S628" s="13">
+        <v>0</v>
+      </c>
+      <c r="T628" s="13">
+        <v>10</v>
+      </c>
+      <c r="U628" s="13">
+        <v>0</v>
+      </c>
+      <c r="V628" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>64</v>
+      </c>
+      <c r="B629">
+        <v>13</v>
+      </c>
+      <c r="C629" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D629" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E629" s="17">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="F629" s="13">
+        <v>0</v>
+      </c>
+      <c r="G629" s="13">
+        <v>0</v>
+      </c>
+      <c r="H629" s="13">
+        <v>1</v>
+      </c>
+      <c r="I629" s="13">
+        <v>2</v>
+      </c>
+      <c r="J629" s="13">
+        <v>0</v>
+      </c>
+      <c r="K629" s="13">
+        <v>3</v>
+      </c>
+      <c r="L629" s="13">
+        <v>0</v>
+      </c>
+      <c r="M629" s="13">
+        <v>0</v>
+      </c>
+      <c r="N629" s="13">
+        <v>0</v>
+      </c>
+      <c r="O629" s="13">
+        <v>0</v>
+      </c>
+      <c r="P629" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q629" s="13">
+        <v>0</v>
+      </c>
+      <c r="R629" s="13">
+        <v>0</v>
+      </c>
+      <c r="S629" s="13">
+        <v>0</v>
+      </c>
+      <c r="T629" s="13">
+        <v>5</v>
+      </c>
+      <c r="U629" s="13">
+        <v>0</v>
+      </c>
+      <c r="V629" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>64</v>
+      </c>
+      <c r="B630">
+        <v>13</v>
+      </c>
+      <c r="C630" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D630" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E630" s="17">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="F630" s="13">
+        <v>0</v>
+      </c>
+      <c r="G630" s="13">
+        <v>0</v>
+      </c>
+      <c r="H630" s="13">
+        <v>2</v>
+      </c>
+      <c r="I630" s="13">
+        <v>1</v>
+      </c>
+      <c r="J630" s="13">
+        <v>0</v>
+      </c>
+      <c r="K630" s="13">
+        <v>0</v>
+      </c>
+      <c r="L630" s="13">
+        <v>0</v>
+      </c>
+      <c r="M630" s="13">
+        <v>0</v>
+      </c>
+      <c r="N630" s="13">
+        <v>0</v>
+      </c>
+      <c r="O630" s="13">
+        <v>0</v>
+      </c>
+      <c r="P630" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q630" s="13">
+        <v>0</v>
+      </c>
+      <c r="R630" s="13">
+        <v>0</v>
+      </c>
+      <c r="S630" s="13">
+        <v>0</v>
+      </c>
+      <c r="T630" s="13">
+        <v>0</v>
+      </c>
+      <c r="U630" s="13">
+        <v>0</v>
+      </c>
+      <c r="V630" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>64</v>
+      </c>
+      <c r="B631">
+        <v>13</v>
+      </c>
+      <c r="C631" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D631" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E631" s="17">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="F631" s="13">
+        <v>0</v>
+      </c>
+      <c r="G631" s="13">
+        <v>0</v>
+      </c>
+      <c r="H631" s="13">
+        <v>22</v>
+      </c>
+      <c r="I631" s="13">
+        <v>18</v>
+      </c>
+      <c r="J631" s="13">
+        <v>9</v>
+      </c>
+      <c r="K631" s="13">
+        <v>5</v>
+      </c>
+      <c r="L631" s="13">
+        <v>0</v>
+      </c>
+      <c r="M631" s="13">
+        <v>0</v>
+      </c>
+      <c r="N631" s="13">
+        <v>0</v>
+      </c>
+      <c r="O631" s="13">
+        <v>1</v>
+      </c>
+      <c r="P631" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q631" s="13">
+        <v>0</v>
+      </c>
+      <c r="R631" s="13">
+        <v>0</v>
+      </c>
+      <c r="S631" s="13">
+        <v>0</v>
+      </c>
+      <c r="T631" s="13">
+        <v>21</v>
+      </c>
+      <c r="U631" s="13">
+        <v>2</v>
+      </c>
+      <c r="V631" s="13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
